--- a/Code/Results/Cases/Case_1_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_58/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.97096057729137</v>
+        <v>26.97096057729133</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>13.93724718536618</v>
+        <v>13.93724718536596</v>
       </c>
       <c r="E2">
-        <v>46.49669050011214</v>
+        <v>46.49669050011195</v>
       </c>
       <c r="F2">
-        <v>85.11434735459117</v>
+        <v>85.11434735459092</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>80.39994408166888</v>
+        <v>80.39994408166861</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.51769459506094</v>
+        <v>24.51769459506101</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>11.87945927832281</v>
+        <v>11.87945927832282</v>
       </c>
       <c r="E3">
-        <v>42.31360398666835</v>
+        <v>42.31360398666843</v>
       </c>
       <c r="F3">
-        <v>73.75663686347347</v>
+        <v>73.75663686347302</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>72.55961154909893</v>
+        <v>72.5596115490991</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.06860865727762</v>
+        <v>23.06860865727773</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>10.79206874428863</v>
+        <v>10.79206874428887</v>
       </c>
       <c r="E4">
-        <v>39.87004025878399</v>
+        <v>39.87004025878401</v>
       </c>
       <c r="F4">
-        <v>67.66755412815871</v>
+        <v>67.66755412815894</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>68.04536645714732</v>
+        <v>68.04536645714737</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.48100411620516</v>
+        <v>22.48100411620526</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>10.37317065146184</v>
+        <v>10.37317065146189</v>
       </c>
       <c r="E5">
-        <v>38.88319170083115</v>
+        <v>38.8831917008315</v>
       </c>
       <c r="F5">
-        <v>65.30658920740355</v>
+        <v>65.3065892074037</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>66.23405140410161</v>
+        <v>66.23405140410205</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.38340100838452</v>
+        <v>22.38340100838459</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>10.30472188010824</v>
+        <v>10.30472188010826</v>
       </c>
       <c r="E6">
-        <v>38.71946509820099</v>
+        <v>38.71946509820101</v>
       </c>
       <c r="F6">
-        <v>64.92002805735815</v>
+        <v>64.92002805735856</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>65.93414657501104</v>
+        <v>65.93414657501113</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.06068218838073</v>
+        <v>23.06068218838086</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>10.78633828999927</v>
+        <v>10.78633828999924</v>
       </c>
       <c r="E7">
-        <v>39.85671436524986</v>
+        <v>39.85671436525008</v>
       </c>
       <c r="F7">
-        <v>67.63531231252549</v>
+        <v>67.63531231252504</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>68.0208645027629</v>
+        <v>68.02086450276306</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.10296543718722</v>
+        <v>26.10296543718732</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>13.17302874183601</v>
+        <v>13.17302874183623</v>
       </c>
       <c r="E8">
-        <v>45.0082174957177</v>
+        <v>45.00821749571769</v>
       </c>
       <c r="F8">
-        <v>80.92221056379952</v>
+        <v>80.9222105638007</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>77.59221884712625</v>
+        <v>77.59221884712638</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.10296543718722</v>
+        <v>26.10296543718732</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>13.17302874183601</v>
+        <v>13.17302874183623</v>
       </c>
       <c r="E9">
-        <v>45.0082174957177</v>
+        <v>45.00821749571769</v>
       </c>
       <c r="F9">
-        <v>80.92221056379952</v>
+        <v>80.9222105638007</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>77.59221884712625</v>
+        <v>77.59221884712638</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.10296543718722</v>
+        <v>26.10296543718732</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>13.17302874183601</v>
+        <v>13.17302874183623</v>
       </c>
       <c r="E10">
-        <v>45.0082174957177</v>
+        <v>45.00821749571769</v>
       </c>
       <c r="F10">
-        <v>80.92221056379952</v>
+        <v>80.9222105638007</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>77.59221884712625</v>
+        <v>77.59221884712638</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.10296543718722</v>
+        <v>26.10296543718732</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>13.17302874183601</v>
+        <v>13.17302874183623</v>
       </c>
       <c r="E11">
-        <v>45.0082174957177</v>
+        <v>45.00821749571769</v>
       </c>
       <c r="F11">
-        <v>80.92221056379952</v>
+        <v>80.9222105638007</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>77.59221884712625</v>
+        <v>77.59221884712638</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.10296543718722</v>
+        <v>26.10296543718732</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>13.17302874183601</v>
+        <v>13.17302874183623</v>
       </c>
       <c r="E12">
-        <v>45.0082174957177</v>
+        <v>45.00821749571769</v>
       </c>
       <c r="F12">
-        <v>80.92221056379952</v>
+        <v>80.9222105638007</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>77.59221884712625</v>
+        <v>77.59221884712638</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.10296543718722</v>
+        <v>26.10296543718732</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>13.17302874183601</v>
+        <v>13.17302874183623</v>
       </c>
       <c r="E13">
-        <v>45.0082174957177</v>
+        <v>45.00821749571769</v>
       </c>
       <c r="F13">
-        <v>80.92221056379952</v>
+        <v>80.9222105638007</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>77.59221884712625</v>
+        <v>77.59221884712638</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.10296543718722</v>
+        <v>26.10296543718732</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>13.17302874183601</v>
+        <v>13.17302874183623</v>
       </c>
       <c r="E14">
-        <v>45.0082174957177</v>
+        <v>45.00821749571769</v>
       </c>
       <c r="F14">
-        <v>80.92221056379952</v>
+        <v>80.9222105638007</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>77.59221884712625</v>
+        <v>77.59221884712638</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.10296543718722</v>
+        <v>26.10296543718732</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>13.17302874183601</v>
+        <v>13.17302874183623</v>
       </c>
       <c r="E15">
-        <v>45.0082174957177</v>
+        <v>45.00821749571769</v>
       </c>
       <c r="F15">
-        <v>80.92221056379952</v>
+        <v>80.9222105638007</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>77.59221884712625</v>
+        <v>77.59221884712638</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.10296543718722</v>
+        <v>26.10296543718732</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>13.17302874183601</v>
+        <v>13.17302874183623</v>
       </c>
       <c r="E16">
-        <v>45.0082174957177</v>
+        <v>45.00821749571769</v>
       </c>
       <c r="F16">
-        <v>80.92221056379952</v>
+        <v>80.9222105638007</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>77.59221884712625</v>
+        <v>77.59221884712638</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.10296543718722</v>
+        <v>26.10296543718732</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>13.17302874183601</v>
+        <v>13.17302874183623</v>
       </c>
       <c r="E17">
-        <v>45.0082174957177</v>
+        <v>45.00821749571769</v>
       </c>
       <c r="F17">
-        <v>80.92221056379952</v>
+        <v>80.9222105638007</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>77.59221884712625</v>
+        <v>77.59221884712638</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.10296543718722</v>
+        <v>26.10296543718732</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>13.17302874183601</v>
+        <v>13.17302874183623</v>
       </c>
       <c r="E18">
-        <v>45.0082174957177</v>
+        <v>45.00821749571769</v>
       </c>
       <c r="F18">
-        <v>80.92221056379952</v>
+        <v>80.9222105638007</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>77.59221884712625</v>
+        <v>77.59221884712638</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.10296543718722</v>
+        <v>26.10296543718732</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>13.17302874183601</v>
+        <v>13.17302874183623</v>
       </c>
       <c r="E19">
-        <v>45.0082174957177</v>
+        <v>45.00821749571769</v>
       </c>
       <c r="F19">
-        <v>80.92221056379952</v>
+        <v>80.9222105638007</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>77.59221884712625</v>
+        <v>77.59221884712638</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.10296543718722</v>
+        <v>26.10296543718732</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>13.17302874183601</v>
+        <v>13.17302874183623</v>
       </c>
       <c r="E20">
-        <v>45.0082174957177</v>
+        <v>45.00821749571769</v>
       </c>
       <c r="F20">
-        <v>80.92221056379952</v>
+        <v>80.9222105638007</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>77.59221884712625</v>
+        <v>77.59221884712638</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.10296543718722</v>
+        <v>26.10296543718732</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>13.17302874183601</v>
+        <v>13.17302874183623</v>
       </c>
       <c r="E21">
-        <v>45.0082174957177</v>
+        <v>45.00821749571769</v>
       </c>
       <c r="F21">
-        <v>80.92221056379952</v>
+        <v>80.9222105638007</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>77.59221884712625</v>
+        <v>77.59221884712638</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.10296543718722</v>
+        <v>26.10296543718732</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>13.17302874183601</v>
+        <v>13.17302874183623</v>
       </c>
       <c r="E22">
-        <v>45.0082174957177</v>
+        <v>45.00821749571769</v>
       </c>
       <c r="F22">
-        <v>80.92221056379952</v>
+        <v>80.9222105638007</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>77.59221884712625</v>
+        <v>77.59221884712638</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.10296543718722</v>
+        <v>26.10296543718732</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>13.17302874183601</v>
+        <v>13.17302874183623</v>
       </c>
       <c r="E23">
-        <v>45.0082174957177</v>
+        <v>45.00821749571769</v>
       </c>
       <c r="F23">
-        <v>80.92221056379952</v>
+        <v>80.9222105638007</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>77.59221884712625</v>
+        <v>77.59221884712638</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.10296543718722</v>
+        <v>26.10296543718732</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>13.17302874183601</v>
+        <v>13.17302874183623</v>
       </c>
       <c r="E24">
-        <v>45.0082174957177</v>
+        <v>45.00821749571769</v>
       </c>
       <c r="F24">
-        <v>80.92221056379952</v>
+        <v>80.9222105638007</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>77.59221884712625</v>
+        <v>77.59221884712638</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.10296543718722</v>
+        <v>26.10296543718732</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>13.17302874183601</v>
+        <v>13.17302874183623</v>
       </c>
       <c r="E25">
-        <v>45.0082174957177</v>
+        <v>45.00821749571769</v>
       </c>
       <c r="F25">
-        <v>80.92221056379952</v>
+        <v>80.9222105638007</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>77.59221884712625</v>
+        <v>77.59221884712638</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_58/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.97096057729133</v>
+        <v>26.97096057729137</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>13.93724718536596</v>
+        <v>13.93724718536618</v>
       </c>
       <c r="E2">
-        <v>46.49669050011195</v>
+        <v>46.49669050011214</v>
       </c>
       <c r="F2">
-        <v>85.11434735459092</v>
+        <v>85.11434735459117</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>80.39994408166861</v>
+        <v>80.39994408166888</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.51769459506101</v>
+        <v>24.51769459506094</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>11.87945927832282</v>
+        <v>11.87945927832281</v>
       </c>
       <c r="E3">
-        <v>42.31360398666843</v>
+        <v>42.31360398666835</v>
       </c>
       <c r="F3">
-        <v>73.75663686347302</v>
+        <v>73.75663686347347</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>72.5596115490991</v>
+        <v>72.55961154909893</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.06860865727773</v>
+        <v>23.06860865727762</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>10.79206874428887</v>
+        <v>10.79206874428863</v>
       </c>
       <c r="E4">
-        <v>39.87004025878401</v>
+        <v>39.87004025878399</v>
       </c>
       <c r="F4">
-        <v>67.66755412815894</v>
+        <v>67.66755412815871</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>68.04536645714737</v>
+        <v>68.04536645714732</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.48100411620526</v>
+        <v>22.48100411620516</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>10.37317065146189</v>
+        <v>10.37317065146184</v>
       </c>
       <c r="E5">
-        <v>38.8831917008315</v>
+        <v>38.88319170083115</v>
       </c>
       <c r="F5">
-        <v>65.3065892074037</v>
+        <v>65.30658920740355</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>66.23405140410205</v>
+        <v>66.23405140410161</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.38340100838459</v>
+        <v>22.38340100838452</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>10.30472188010826</v>
+        <v>10.30472188010824</v>
       </c>
       <c r="E6">
-        <v>38.71946509820101</v>
+        <v>38.71946509820099</v>
       </c>
       <c r="F6">
-        <v>64.92002805735856</v>
+        <v>64.92002805735815</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>65.93414657501113</v>
+        <v>65.93414657501104</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.06068218838086</v>
+        <v>23.06068218838073</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>10.78633828999924</v>
+        <v>10.78633828999927</v>
       </c>
       <c r="E7">
-        <v>39.85671436525008</v>
+        <v>39.85671436524986</v>
       </c>
       <c r="F7">
-        <v>67.63531231252504</v>
+        <v>67.63531231252549</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>68.02086450276306</v>
+        <v>68.0208645027629</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.10296543718732</v>
+        <v>26.10296543718722</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>13.17302874183623</v>
+        <v>13.17302874183601</v>
       </c>
       <c r="E8">
-        <v>45.00821749571769</v>
+        <v>45.0082174957177</v>
       </c>
       <c r="F8">
-        <v>80.9222105638007</v>
+        <v>80.92221056379952</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>77.59221884712638</v>
+        <v>77.59221884712625</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.10296543718732</v>
+        <v>26.10296543718722</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>13.17302874183623</v>
+        <v>13.17302874183601</v>
       </c>
       <c r="E9">
-        <v>45.00821749571769</v>
+        <v>45.0082174957177</v>
       </c>
       <c r="F9">
-        <v>80.9222105638007</v>
+        <v>80.92221056379952</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>77.59221884712638</v>
+        <v>77.59221884712625</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.10296543718732</v>
+        <v>26.10296543718722</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>13.17302874183623</v>
+        <v>13.17302874183601</v>
       </c>
       <c r="E10">
-        <v>45.00821749571769</v>
+        <v>45.0082174957177</v>
       </c>
       <c r="F10">
-        <v>80.9222105638007</v>
+        <v>80.92221056379952</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>77.59221884712638</v>
+        <v>77.59221884712625</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.10296543718732</v>
+        <v>26.10296543718722</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>13.17302874183623</v>
+        <v>13.17302874183601</v>
       </c>
       <c r="E11">
-        <v>45.00821749571769</v>
+        <v>45.0082174957177</v>
       </c>
       <c r="F11">
-        <v>80.9222105638007</v>
+        <v>80.92221056379952</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>77.59221884712638</v>
+        <v>77.59221884712625</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.10296543718732</v>
+        <v>26.10296543718722</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>13.17302874183623</v>
+        <v>13.17302874183601</v>
       </c>
       <c r="E12">
-        <v>45.00821749571769</v>
+        <v>45.0082174957177</v>
       </c>
       <c r="F12">
-        <v>80.9222105638007</v>
+        <v>80.92221056379952</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>77.59221884712638</v>
+        <v>77.59221884712625</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.10296543718732</v>
+        <v>26.10296543718722</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>13.17302874183623</v>
+        <v>13.17302874183601</v>
       </c>
       <c r="E13">
-        <v>45.00821749571769</v>
+        <v>45.0082174957177</v>
       </c>
       <c r="F13">
-        <v>80.9222105638007</v>
+        <v>80.92221056379952</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>77.59221884712638</v>
+        <v>77.59221884712625</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.10296543718732</v>
+        <v>26.10296543718722</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>13.17302874183623</v>
+        <v>13.17302874183601</v>
       </c>
       <c r="E14">
-        <v>45.00821749571769</v>
+        <v>45.0082174957177</v>
       </c>
       <c r="F14">
-        <v>80.9222105638007</v>
+        <v>80.92221056379952</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>77.59221884712638</v>
+        <v>77.59221884712625</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.10296543718732</v>
+        <v>26.10296543718722</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>13.17302874183623</v>
+        <v>13.17302874183601</v>
       </c>
       <c r="E15">
-        <v>45.00821749571769</v>
+        <v>45.0082174957177</v>
       </c>
       <c r="F15">
-        <v>80.9222105638007</v>
+        <v>80.92221056379952</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>77.59221884712638</v>
+        <v>77.59221884712625</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.10296543718732</v>
+        <v>26.10296543718722</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>13.17302874183623</v>
+        <v>13.17302874183601</v>
       </c>
       <c r="E16">
-        <v>45.00821749571769</v>
+        <v>45.0082174957177</v>
       </c>
       <c r="F16">
-        <v>80.9222105638007</v>
+        <v>80.92221056379952</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>77.59221884712638</v>
+        <v>77.59221884712625</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.10296543718732</v>
+        <v>26.10296543718722</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>13.17302874183623</v>
+        <v>13.17302874183601</v>
       </c>
       <c r="E17">
-        <v>45.00821749571769</v>
+        <v>45.0082174957177</v>
       </c>
       <c r="F17">
-        <v>80.9222105638007</v>
+        <v>80.92221056379952</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>77.59221884712638</v>
+        <v>77.59221884712625</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.10296543718732</v>
+        <v>26.10296543718722</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>13.17302874183623</v>
+        <v>13.17302874183601</v>
       </c>
       <c r="E18">
-        <v>45.00821749571769</v>
+        <v>45.0082174957177</v>
       </c>
       <c r="F18">
-        <v>80.9222105638007</v>
+        <v>80.92221056379952</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>77.59221884712638</v>
+        <v>77.59221884712625</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.10296543718732</v>
+        <v>26.10296543718722</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>13.17302874183623</v>
+        <v>13.17302874183601</v>
       </c>
       <c r="E19">
-        <v>45.00821749571769</v>
+        <v>45.0082174957177</v>
       </c>
       <c r="F19">
-        <v>80.9222105638007</v>
+        <v>80.92221056379952</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>77.59221884712638</v>
+        <v>77.59221884712625</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.10296543718732</v>
+        <v>26.10296543718722</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>13.17302874183623</v>
+        <v>13.17302874183601</v>
       </c>
       <c r="E20">
-        <v>45.00821749571769</v>
+        <v>45.0082174957177</v>
       </c>
       <c r="F20">
-        <v>80.9222105638007</v>
+        <v>80.92221056379952</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>77.59221884712638</v>
+        <v>77.59221884712625</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.10296543718732</v>
+        <v>26.10296543718722</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>13.17302874183623</v>
+        <v>13.17302874183601</v>
       </c>
       <c r="E21">
-        <v>45.00821749571769</v>
+        <v>45.0082174957177</v>
       </c>
       <c r="F21">
-        <v>80.9222105638007</v>
+        <v>80.92221056379952</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>77.59221884712638</v>
+        <v>77.59221884712625</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.10296543718732</v>
+        <v>26.10296543718722</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>13.17302874183623</v>
+        <v>13.17302874183601</v>
       </c>
       <c r="E22">
-        <v>45.00821749571769</v>
+        <v>45.0082174957177</v>
       </c>
       <c r="F22">
-        <v>80.9222105638007</v>
+        <v>80.92221056379952</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>77.59221884712638</v>
+        <v>77.59221884712625</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.10296543718732</v>
+        <v>26.10296543718722</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>13.17302874183623</v>
+        <v>13.17302874183601</v>
       </c>
       <c r="E23">
-        <v>45.00821749571769</v>
+        <v>45.0082174957177</v>
       </c>
       <c r="F23">
-        <v>80.9222105638007</v>
+        <v>80.92221056379952</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>77.59221884712638</v>
+        <v>77.59221884712625</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.10296543718732</v>
+        <v>26.10296543718722</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>13.17302874183623</v>
+        <v>13.17302874183601</v>
       </c>
       <c r="E24">
-        <v>45.00821749571769</v>
+        <v>45.0082174957177</v>
       </c>
       <c r="F24">
-        <v>80.9222105638007</v>
+        <v>80.92221056379952</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>77.59221884712638</v>
+        <v>77.59221884712625</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.10296543718732</v>
+        <v>26.10296543718722</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>13.17302874183623</v>
+        <v>13.17302874183601</v>
       </c>
       <c r="E25">
-        <v>45.00821749571769</v>
+        <v>45.0082174957177</v>
       </c>
       <c r="F25">
-        <v>80.9222105638007</v>
+        <v>80.92221056379952</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>77.59221884712638</v>
+        <v>77.59221884712625</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_58/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,28 +406,31 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.97096057729137</v>
+        <v>26.8407617848046</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>13.93724718536618</v>
+        <v>13.58802600424269</v>
       </c>
       <c r="E2">
-        <v>46.49669050011214</v>
+        <v>46.16080168904323</v>
       </c>
       <c r="F2">
-        <v>85.11434735459117</v>
+        <v>83.7034672830497</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.688143332163276</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,33 +442,36 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>80.39994408166888</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>79.83587411881032</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.51769459506094</v>
+        <v>24.41794933974428</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>11.87945927832281</v>
+        <v>11.58705281833285</v>
       </c>
       <c r="E3">
-        <v>42.31360398666835</v>
+        <v>42.0350578874251</v>
       </c>
       <c r="F3">
-        <v>73.75663686347347</v>
+        <v>72.67378657037948</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.766032803643002</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,33 +483,36 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>72.55961154909893</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>72.12002276212311</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.06860865727762</v>
+        <v>22.98111844331069</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>10.79206874428863</v>
+        <v>10.52331265955179</v>
       </c>
       <c r="E4">
-        <v>39.87004025878399</v>
+        <v>39.61211530345172</v>
       </c>
       <c r="F4">
-        <v>67.66755412815871</v>
+        <v>66.72874502096148</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.806955942773575</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,33 +524,36 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>68.04536645714732</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>67.65474875387009</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.48100411620516</v>
+        <v>22.39778335875801</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>10.37317065146184</v>
+        <v>10.11290569007145</v>
       </c>
       <c r="E5">
-        <v>38.88319170083115</v>
+        <v>38.6318864891493</v>
       </c>
       <c r="F5">
-        <v>65.30658920740355</v>
+        <v>64.42082917326718</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.822647446929421</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,33 +565,36 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>66.23405140410161</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>65.86023959023544</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.38340100838452</v>
+        <v>22.30085824741366</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>10.30472188010824</v>
+        <v>10.04582169260971</v>
       </c>
       <c r="E6">
-        <v>38.71946509820099</v>
+        <v>38.46917790978706</v>
       </c>
       <c r="F6">
-        <v>64.92002805735815</v>
+        <v>64.04286295163004</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.825207031555416</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,33 +606,36 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>65.93414657501104</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>65.5629885942186</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.06068218838073</v>
+        <v>22.97325185795627</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>10.78633828999927</v>
+        <v>10.51770018074307</v>
       </c>
       <c r="E7">
-        <v>39.85671436524986</v>
+        <v>39.59888460037165</v>
       </c>
       <c r="F7">
-        <v>67.63531231252549</v>
+        <v>66.69723527721347</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.807170903454359</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,33 +647,36 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>68.0208645027629</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>67.63048357535799</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.10296543718722</v>
+        <v>25.98553682845519</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>13.17302874183601</v>
+        <v>12.84747852620562</v>
       </c>
       <c r="E8">
-        <v>45.0082174957177</v>
+        <v>44.69710173445012</v>
       </c>
       <c r="F8">
-        <v>80.92221056379952</v>
+        <v>79.6454407848918</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.717100129929878</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,33 +688,36 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>77.59221884712625</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>77.0806855953696</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.10296543718722</v>
+        <v>25.98553682845519</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>13.17302874183601</v>
+        <v>12.84747852620562</v>
       </c>
       <c r="E9">
-        <v>45.0082174957177</v>
+        <v>44.69710173445012</v>
       </c>
       <c r="F9">
-        <v>80.92221056379952</v>
+        <v>79.6454407848918</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.717100129929878</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,33 +729,36 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>77.59221884712625</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>77.0806855953696</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.10296543718722</v>
+        <v>25.98553682845519</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>13.17302874183601</v>
+        <v>12.84747852620562</v>
       </c>
       <c r="E10">
-        <v>45.0082174957177</v>
+        <v>44.69710173445012</v>
       </c>
       <c r="F10">
-        <v>80.92221056379952</v>
+        <v>79.6454407848918</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.717100129929878</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,33 +770,36 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>77.59221884712625</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>77.0806855953696</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.10296543718722</v>
+        <v>25.98553682845519</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>13.17302874183601</v>
+        <v>12.84747852620562</v>
       </c>
       <c r="E11">
-        <v>45.0082174957177</v>
+        <v>44.69710173445012</v>
       </c>
       <c r="F11">
-        <v>80.92221056379952</v>
+        <v>79.6454407848918</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.717100129929878</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,33 +811,36 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>77.59221884712625</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>77.0806855953696</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.10296543718722</v>
+        <v>25.98553682845519</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>13.17302874183601</v>
+        <v>12.84747852620562</v>
       </c>
       <c r="E12">
-        <v>45.0082174957177</v>
+        <v>44.69710173445012</v>
       </c>
       <c r="F12">
-        <v>80.92221056379952</v>
+        <v>79.6454407848918</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.717100129929878</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,33 +852,36 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>77.59221884712625</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>77.0806855953696</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.10296543718722</v>
+        <v>25.98553682845519</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>13.17302874183601</v>
+        <v>12.84747852620562</v>
       </c>
       <c r="E13">
-        <v>45.0082174957177</v>
+        <v>44.69710173445012</v>
       </c>
       <c r="F13">
-        <v>80.92221056379952</v>
+        <v>79.6454407848918</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.717100129929878</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,33 +893,36 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>77.59221884712625</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>77.0806855953696</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.10296543718722</v>
+        <v>25.98553682845519</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>13.17302874183601</v>
+        <v>12.84747852620562</v>
       </c>
       <c r="E14">
-        <v>45.0082174957177</v>
+        <v>44.69710173445012</v>
       </c>
       <c r="F14">
-        <v>80.92221056379952</v>
+        <v>79.6454407848918</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.717100129929878</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,33 +934,36 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>77.59221884712625</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>77.0806855953696</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.10296543718722</v>
+        <v>25.98553682845519</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>13.17302874183601</v>
+        <v>12.84747852620562</v>
       </c>
       <c r="E15">
-        <v>45.0082174957177</v>
+        <v>44.69710173445012</v>
       </c>
       <c r="F15">
-        <v>80.92221056379952</v>
+        <v>79.6454407848918</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.717100129929878</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,33 +975,36 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>77.59221884712625</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>77.0806855953696</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.10296543718722</v>
+        <v>25.98553682845519</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>13.17302874183601</v>
+        <v>12.84747852620562</v>
       </c>
       <c r="E16">
-        <v>45.0082174957177</v>
+        <v>44.69710173445012</v>
       </c>
       <c r="F16">
-        <v>80.92221056379952</v>
+        <v>79.6454407848918</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.717100129929878</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,33 +1016,36 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>77.59221884712625</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>77.0806855953696</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.10296543718722</v>
+        <v>25.98553682845519</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>13.17302874183601</v>
+        <v>12.84747852620562</v>
       </c>
       <c r="E17">
-        <v>45.0082174957177</v>
+        <v>44.69710173445012</v>
       </c>
       <c r="F17">
-        <v>80.92221056379952</v>
+        <v>79.6454407848918</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.717100129929878</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,33 +1057,36 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>77.59221884712625</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>77.0806855953696</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.10296543718722</v>
+        <v>25.98553682845519</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>13.17302874183601</v>
+        <v>12.84747852620562</v>
       </c>
       <c r="E18">
-        <v>45.0082174957177</v>
+        <v>44.69710173445012</v>
       </c>
       <c r="F18">
-        <v>80.92221056379952</v>
+        <v>79.6454407848918</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.717100129929878</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,33 +1098,36 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>77.59221884712625</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>77.0806855953696</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.10296543718722</v>
+        <v>25.98553682845519</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>13.17302874183601</v>
+        <v>12.84747852620562</v>
       </c>
       <c r="E19">
-        <v>45.0082174957177</v>
+        <v>44.69710173445012</v>
       </c>
       <c r="F19">
-        <v>80.92221056379952</v>
+        <v>79.6454407848918</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.717100129929878</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,33 +1139,36 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>77.59221884712625</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>77.0806855953696</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.10296543718722</v>
+        <v>25.98553682845519</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>13.17302874183601</v>
+        <v>12.84747852620562</v>
       </c>
       <c r="E20">
-        <v>45.0082174957177</v>
+        <v>44.69710173445012</v>
       </c>
       <c r="F20">
-        <v>80.92221056379952</v>
+        <v>79.6454407848918</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.717100129929878</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,33 +1180,36 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>77.59221884712625</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>77.0806855953696</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.10296543718722</v>
+        <v>25.98553682845519</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>13.17302874183601</v>
+        <v>12.84747852620562</v>
       </c>
       <c r="E21">
-        <v>45.0082174957177</v>
+        <v>44.69710173445012</v>
       </c>
       <c r="F21">
-        <v>80.92221056379952</v>
+        <v>79.6454407848918</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.717100129929878</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,33 +1221,36 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>77.59221884712625</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>77.0806855953696</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.10296543718722</v>
+        <v>25.98553682845519</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>13.17302874183601</v>
+        <v>12.84747852620562</v>
       </c>
       <c r="E22">
-        <v>45.0082174957177</v>
+        <v>44.69710173445012</v>
       </c>
       <c r="F22">
-        <v>80.92221056379952</v>
+        <v>79.6454407848918</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.717100129929878</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,33 +1262,36 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>77.59221884712625</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>77.0806855953696</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.10296543718722</v>
+        <v>25.98553682845519</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>13.17302874183601</v>
+        <v>12.84747852620562</v>
       </c>
       <c r="E23">
-        <v>45.0082174957177</v>
+        <v>44.69710173445012</v>
       </c>
       <c r="F23">
-        <v>80.92221056379952</v>
+        <v>79.6454407848918</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.717100129929878</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,33 +1303,36 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>77.59221884712625</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>77.0806855953696</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.10296543718722</v>
+        <v>25.98553682845519</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>13.17302874183601</v>
+        <v>12.84747852620562</v>
       </c>
       <c r="E24">
-        <v>45.0082174957177</v>
+        <v>44.69710173445012</v>
       </c>
       <c r="F24">
-        <v>80.92221056379952</v>
+        <v>79.6454407848918</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.717100129929878</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,33 +1344,36 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>77.59221884712625</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>77.0806855953696</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.10296543718722</v>
+        <v>25.98553682845519</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>13.17302874183601</v>
+        <v>12.84747852620562</v>
       </c>
       <c r="E25">
-        <v>45.0082174957177</v>
+        <v>44.69710173445012</v>
       </c>
       <c r="F25">
-        <v>80.92221056379952</v>
+        <v>79.6454407848918</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.717100129929878</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,9 +1385,12 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>77.59221884712625</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>77.0806855953696</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_58/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>6.467953060607061</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3.647665937333332</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>12.56867508889183</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>24.50620326164575</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>34.53534721367102</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>10.7395111068407</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>14.24887465030398</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.8346331586633</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>17.02489021020333</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>6.13833528545901</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>3.665418605180871</v>
+      </c>
+      <c r="E3">
+        <v>11.88357160203079</v>
+      </c>
+      <c r="F3">
+        <v>23.54236780771815</v>
+      </c>
+      <c r="G3">
+        <v>32.97488874760825</v>
+      </c>
+      <c r="H3">
+        <v>10.58691320312433</v>
+      </c>
+      <c r="I3">
+        <v>14.51924648469645</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>15.81464746616552</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>15.90444368845322</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>5.925852423428949</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>3.676462596963026</v>
+      </c>
+      <c r="E4">
+        <v>11.45701852381466</v>
+      </c>
+      <c r="F4">
+        <v>22.95893998054295</v>
+      </c>
+      <c r="G4">
+        <v>32.02491836764305</v>
+      </c>
+      <c r="H4">
+        <v>10.50265084334501</v>
+      </c>
+      <c r="I4">
+        <v>14.69397326429876</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>15.15683283375239</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>15.18153936243429</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>5.836767422043837</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>3.681002448979786</v>
+      </c>
+      <c r="E5">
+        <v>11.28188876065381</v>
+      </c>
+      <c r="F5">
+        <v>22.7235588388142</v>
+      </c>
+      <c r="G5">
+        <v>31.64031070591288</v>
+      </c>
+      <c r="H5">
+        <v>10.4706205180796</v>
+      </c>
+      <c r="I5">
+        <v>14.767297900385</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>14.88084581419332</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>14.87809370190646</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>5.821825575246575</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>3.681758760021159</v>
+      </c>
+      <c r="E6">
+        <v>11.25273570565951</v>
+      </c>
+      <c r="F6">
+        <v>22.68462532358013</v>
+      </c>
+      <c r="G6">
+        <v>31.57661324108502</v>
+      </c>
+      <c r="H6">
+        <v>10.46543927195438</v>
+      </c>
+      <c r="I6">
+        <v>14.77959969314112</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>14.83454059527005</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>14.82717016234644</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>5.924661037092021</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>3.676523659393768</v>
+      </c>
+      <c r="E7">
+        <v>11.45466168586042</v>
+      </c>
+      <c r="F7">
+        <v>22.95575558331423</v>
+      </c>
+      <c r="G7">
+        <v>32.01972058794274</v>
+      </c>
+      <c r="H7">
+        <v>10.50220961824267</v>
+      </c>
+      <c r="I7">
+        <v>14.69495363968226</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>15.15314282531211</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>15.17748292728858</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>6.356418679190172</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>3.653759073769783</v>
+      </c>
+      <c r="E8">
+        <v>12.33376838193631</v>
+      </c>
+      <c r="F8">
+        <v>24.17228688601538</v>
+      </c>
+      <c r="G8">
+        <v>33.99586634821768</v>
+      </c>
+      <c r="H8">
+        <v>10.68489984133899</v>
+      </c>
+      <c r="I8">
+        <v>14.34024450597895</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>16.48948628411951</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>16.6457670546519</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>7.121600865615831</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3.61012650717896</v>
+      </c>
+      <c r="E9">
+        <v>14.00532958962155</v>
+      </c>
+      <c r="F9">
+        <v>26.61420867613029</v>
+      </c>
+      <c r="G9">
+        <v>37.91900817100996</v>
+      </c>
+      <c r="H9">
+        <v>11.12070362834138</v>
+      </c>
+      <c r="I9">
+        <v>13.71751262021517</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>18.86057107577396</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>19.25167821434303</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>7.632807898765181</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>3.578523253112653</v>
+      </c>
+      <c r="E10">
+        <v>15.22875597263166</v>
+      </c>
+      <c r="F10">
+        <v>28.43193413549204</v>
+      </c>
+      <c r="G10">
+        <v>40.81385417332534</v>
+      </c>
+      <c r="H10">
+        <v>11.49168379995716</v>
+      </c>
+      <c r="I10">
+        <v>13.310468731987</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>20.4530213883026</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>21.00602320549575</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>7.854159735893637</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>3.564217792864455</v>
+      </c>
+      <c r="E11">
+        <v>15.84743093421233</v>
+      </c>
+      <c r="F11">
+        <v>29.26266819343219</v>
+      </c>
+      <c r="G11">
+        <v>42.13174423106516</v>
+      </c>
+      <c r="H11">
+        <v>11.67221683215082</v>
+      </c>
+      <c r="I11">
+        <v>13.13792381343084</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>21.14588425583479</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>21.77102515347831</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>7.936364147997048</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>3.558809468911587</v>
+      </c>
+      <c r="E12">
+        <v>16.07886740881379</v>
+      </c>
+      <c r="F12">
+        <v>29.57775365471073</v>
+      </c>
+      <c r="G12">
+        <v>42.63091213137576</v>
+      </c>
+      <c r="H12">
+        <v>11.74233455718303</v>
+      </c>
+      <c r="I12">
+        <v>13.07456954902462</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>21.40381025856012</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>22.05611719551813</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>7.9187319157985</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>3.559973869481572</v>
+      </c>
+      <c r="E13">
+        <v>16.02914706048811</v>
+      </c>
+      <c r="F13">
+        <v>29.50987209462306</v>
+      </c>
+      <c r="G13">
+        <v>42.52340194777775</v>
+      </c>
+      <c r="H13">
+        <v>11.72715443334802</v>
+      </c>
+      <c r="I13">
+        <v>13.08812276038068</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>21.34845740148607</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>21.99491932389449</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>7.860955164667299</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>3.563772675006965</v>
+      </c>
+      <c r="E14">
+        <v>15.86652732483151</v>
+      </c>
+      <c r="F14">
+        <v>29.28858042976096</v>
+      </c>
+      <c r="G14">
+        <v>42.17280869190273</v>
+      </c>
+      <c r="H14">
+        <v>11.67794994682538</v>
+      </c>
+      <c r="I14">
+        <v>13.13267077476733</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>21.16719251213099</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>21.7945710317366</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>7.825354577993872</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>3.566100675608839</v>
+      </c>
+      <c r="E15">
+        <v>15.76655299292711</v>
+      </c>
+      <c r="F15">
+        <v>29.15309812049357</v>
+      </c>
+      <c r="G15">
+        <v>41.95807535547992</v>
+      </c>
+      <c r="H15">
+        <v>11.64804105264699</v>
+      </c>
+      <c r="I15">
+        <v>13.16022168686667</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>21.05558648944998</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>21.67125811420138</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>7.618116041739087</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>3.579459445904941</v>
+      </c>
+      <c r="E16">
+        <v>15.18791720505254</v>
+      </c>
+      <c r="F16">
+        <v>28.37771566485087</v>
+      </c>
+      <c r="G16">
+        <v>40.72774223384214</v>
+      </c>
+      <c r="H16">
+        <v>11.4801275521985</v>
+      </c>
+      <c r="I16">
+        <v>13.32201284488616</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>20.40711368351976</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>20.95537625787756</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>7.488107667295971</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>3.58767163539668</v>
+      </c>
+      <c r="E17">
+        <v>14.85380930397715</v>
+      </c>
+      <c r="F17">
+        <v>27.90297620315528</v>
+      </c>
+      <c r="G17">
+        <v>39.97317744822963</v>
+      </c>
+      <c r="H17">
+        <v>11.38017545658384</v>
+      </c>
+      <c r="I17">
+        <v>13.4246118389488</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>20.0012752239938</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>20.50784448621987</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>7.412276276433562</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>3.592401801127651</v>
+      </c>
+      <c r="E18">
+        <v>14.6757829634539</v>
+      </c>
+      <c r="F18">
+        <v>27.6302797478991</v>
+      </c>
+      <c r="G18">
+        <v>39.53926296500966</v>
+      </c>
+      <c r="H18">
+        <v>11.3237899267841</v>
+      </c>
+      <c r="I18">
+        <v>13.48480040806467</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>19.76487152598551</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>20.24731405560003</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>7.386420310271608</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>3.594004562213299</v>
+      </c>
+      <c r="E19">
+        <v>14.61537597560235</v>
+      </c>
+      <c r="F19">
+        <v>27.53801379230197</v>
+      </c>
+      <c r="G19">
+        <v>39.39236522187963</v>
+      </c>
+      <c r="H19">
+        <v>11.30488661808304</v>
+      </c>
+      <c r="I19">
+        <v>13.50537650806023</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>19.68431563557759</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>20.15856225009515</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>7.50205642710327</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>3.586796749096183</v>
+      </c>
+      <c r="E20">
+        <v>14.88669617733777</v>
+      </c>
+      <c r="F20">
+        <v>27.95347617609609</v>
+      </c>
+      <c r="G20">
+        <v>40.05349326286913</v>
+      </c>
+      <c r="H20">
+        <v>11.39070081088483</v>
+      </c>
+      <c r="I20">
+        <v>13.41356710707954</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>20.04478483437278</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>20.55580704633238</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>7.87796950324595</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>3.562656641297651</v>
+      </c>
+      <c r="E21">
+        <v>15.91436844273537</v>
+      </c>
+      <c r="F21">
+        <v>29.35356557005125</v>
+      </c>
+      <c r="G21">
+        <v>42.27578319641799</v>
+      </c>
+      <c r="H21">
+        <v>11.69235439311932</v>
+      </c>
+      <c r="I21">
+        <v>13.11953059147366</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>21.22055426598233</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>21.85354162552641</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>8.114226973040834</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>3.546931111394968</v>
+      </c>
+      <c r="E22">
+        <v>16.58289637166432</v>
+      </c>
+      <c r="F22">
+        <v>30.27156349140646</v>
+      </c>
+      <c r="G22">
+        <v>43.72888128324215</v>
+      </c>
+      <c r="H22">
+        <v>11.8997567202589</v>
+      </c>
+      <c r="I22">
+        <v>12.93902804462724</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>21.96312594464204</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>22.67497351379994</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>7.988995146004972</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>3.555319686216211</v>
+      </c>
+      <c r="E23">
+        <v>16.2275395099648</v>
+      </c>
+      <c r="F23">
+        <v>29.78134127221976</v>
+      </c>
+      <c r="G23">
+        <v>42.95325729728258</v>
+      </c>
+      <c r="H23">
+        <v>11.78810255597639</v>
+      </c>
+      <c r="I23">
+        <v>13.03423485027169</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>21.56913353989895</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>22.23894772525137</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>7.495753580657468</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>3.58719225745757</v>
+      </c>
+      <c r="E24">
+        <v>14.87183062786403</v>
+      </c>
+      <c r="F24">
+        <v>27.93064439395063</v>
+      </c>
+      <c r="G24">
+        <v>40.0171828067689</v>
+      </c>
+      <c r="H24">
+        <v>11.38593894420374</v>
+      </c>
+      <c r="I24">
+        <v>13.41855669565423</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>20.02512374519007</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>20.53413327154738</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>6.923483089157072</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>3.621840144094858</v>
+      </c>
+      <c r="E25">
+        <v>13.5593427293557</v>
+      </c>
+      <c r="F25">
+        <v>25.94883607791186</v>
+      </c>
+      <c r="G25">
+        <v>36.85459714102217</v>
+      </c>
+      <c r="H25">
+        <v>10.99413340299548</v>
+      </c>
+      <c r="I25">
+        <v>13.87761209297728</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>18.24564667518357</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>18.575367330699</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_58/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.467953060607061</v>
+        <v>5.457444107075544</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.647665937333332</v>
+        <v>4.846976662484721</v>
       </c>
       <c r="E2">
-        <v>12.56867508889183</v>
+        <v>11.95299178546759</v>
       </c>
       <c r="F2">
-        <v>24.50620326164575</v>
+        <v>26.70639490867826</v>
       </c>
       <c r="G2">
-        <v>34.53534721367102</v>
+        <v>33.43590813472551</v>
       </c>
       <c r="H2">
-        <v>10.7395111068407</v>
+        <v>15.04613355717483</v>
       </c>
       <c r="I2">
-        <v>14.24887465030398</v>
+        <v>20.82625208142185</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.8346331586633</v>
+        <v>10.31713435585459</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.02489021020333</v>
+        <v>14.16767760823589</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.13833528545901</v>
+        <v>5.361873318003035</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.665418605180871</v>
+        <v>4.846677358962811</v>
       </c>
       <c r="E3">
-        <v>11.88357160203079</v>
+        <v>11.81774575190637</v>
       </c>
       <c r="F3">
-        <v>23.54236780771815</v>
+        <v>26.58457021936836</v>
       </c>
       <c r="G3">
-        <v>32.97488874760825</v>
+        <v>33.16175406992028</v>
       </c>
       <c r="H3">
-        <v>10.58691320312433</v>
+        <v>15.06726363783326</v>
       </c>
       <c r="I3">
-        <v>14.51924648469645</v>
+        <v>20.92530030009729</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.81464746616552</v>
+        <v>9.924743154793708</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.90444368845322</v>
+        <v>13.92647148850223</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.925852423428949</v>
+        <v>5.303175708217762</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.676462596963026</v>
+        <v>4.846566277226334</v>
       </c>
       <c r="E4">
-        <v>11.45701852381466</v>
+        <v>11.73813056351785</v>
       </c>
       <c r="F4">
-        <v>22.95893998054295</v>
+        <v>26.51841433758723</v>
       </c>
       <c r="G4">
-        <v>32.02491836764305</v>
+        <v>33.00566386869187</v>
       </c>
       <c r="H4">
-        <v>10.50265084334501</v>
+        <v>15.08372687635955</v>
       </c>
       <c r="I4">
-        <v>14.69397326429876</v>
+        <v>20.98982966026263</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.15683283375239</v>
+        <v>9.677773283179794</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.18153936243429</v>
+        <v>13.78008689841568</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.836767422043837</v>
+        <v>5.279283419172097</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.681002448979786</v>
+        <v>4.846539598065029</v>
       </c>
       <c r="E5">
-        <v>11.28188876065381</v>
+        <v>11.70658432574024</v>
       </c>
       <c r="F5">
-        <v>22.7235588388142</v>
+        <v>26.49364764900585</v>
       </c>
       <c r="G5">
-        <v>31.64031070591288</v>
+        <v>32.94519627456081</v>
       </c>
       <c r="H5">
-        <v>10.4706205180796</v>
+        <v>15.09131063402525</v>
       </c>
       <c r="I5">
-        <v>14.767297900385</v>
+        <v>21.01705954635498</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.88084581419332</v>
+        <v>9.575774891639732</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.87809370190646</v>
+        <v>13.72094713737711</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.821825575246575</v>
+        <v>5.275318716991836</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.681758760021159</v>
+        <v>4.846536299819838</v>
       </c>
       <c r="E6">
-        <v>11.25273570565951</v>
+        <v>11.70140131705535</v>
       </c>
       <c r="F6">
-        <v>22.68462532358013</v>
+        <v>26.48966804269024</v>
       </c>
       <c r="G6">
-        <v>31.57661324108502</v>
+        <v>32.93534702141622</v>
       </c>
       <c r="H6">
-        <v>10.46543927195438</v>
+        <v>15.09262266988015</v>
       </c>
       <c r="I6">
-        <v>14.77959969314112</v>
+        <v>21.02163743605476</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.83454059527005</v>
+        <v>9.558761309571203</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.82717016234644</v>
+        <v>13.71116039071724</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.924661037092021</v>
+        <v>5.302853335016533</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.676523659393768</v>
+        <v>4.846565841768847</v>
       </c>
       <c r="E7">
-        <v>11.45466168586042</v>
+        <v>11.73770143970351</v>
       </c>
       <c r="F7">
-        <v>22.95575558331423</v>
+        <v>26.5180714268746</v>
       </c>
       <c r="G7">
-        <v>32.01972058794274</v>
+        <v>33.00483558958624</v>
       </c>
       <c r="H7">
-        <v>10.50220961824267</v>
+        <v>15.08382561496304</v>
       </c>
       <c r="I7">
-        <v>14.69495363968226</v>
+        <v>20.99019311186836</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.15314282531211</v>
+        <v>9.676402961025403</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.17748292728858</v>
+        <v>13.77928713387838</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.356418679190172</v>
+        <v>5.42451361055666</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.653759073769783</v>
+        <v>4.84685855790824</v>
       </c>
       <c r="E8">
-        <v>12.33376838193631</v>
+        <v>11.90567006693613</v>
       </c>
       <c r="F8">
-        <v>24.17228688601538</v>
+        <v>26.66260770538665</v>
       </c>
       <c r="G8">
-        <v>33.99586634821768</v>
+        <v>33.33887867581507</v>
       </c>
       <c r="H8">
-        <v>10.68489984133899</v>
+        <v>15.05269355584179</v>
       </c>
       <c r="I8">
-        <v>14.34024450597895</v>
+        <v>20.85963313249632</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.48948628411951</v>
+        <v>10.18318393262271</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.6457670546519</v>
+        <v>14.08420226509173</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.121600865615831</v>
+        <v>5.661596384719958</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.61012650717896</v>
+        <v>4.847996277709884</v>
       </c>
       <c r="E9">
-        <v>14.00532958962155</v>
+        <v>12.26055941586339</v>
       </c>
       <c r="F9">
-        <v>26.61420867613029</v>
+        <v>27.01365237542366</v>
       </c>
       <c r="G9">
-        <v>37.91900817100996</v>
+        <v>34.0879788232872</v>
       </c>
       <c r="H9">
-        <v>11.12070362834138</v>
+        <v>15.01943241333521</v>
       </c>
       <c r="I9">
-        <v>13.71751262021517</v>
+        <v>20.63307343190866</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.86057107577396</v>
+        <v>11.25317488195368</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.25167821434303</v>
+        <v>14.69219410118009</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.632807898765181</v>
+        <v>5.833110687167629</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.578523253112653</v>
+        <v>4.849158946481009</v>
       </c>
       <c r="E10">
-        <v>15.22875597263166</v>
+        <v>12.53447292127511</v>
       </c>
       <c r="F10">
-        <v>28.43193413549204</v>
+        <v>27.3112266814294</v>
       </c>
       <c r="G10">
-        <v>40.81385417332534</v>
+        <v>34.69108125656733</v>
       </c>
       <c r="H10">
-        <v>11.49168379995716</v>
+        <v>15.01205977917454</v>
       </c>
       <c r="I10">
-        <v>13.310468731987</v>
+        <v>20.48458984023916</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.4530213883026</v>
+        <v>12.06402323933676</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.00602320549575</v>
+        <v>15.14030167380972</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.854159735893637</v>
+        <v>5.910206015043779</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.564217792864455</v>
+        <v>4.849755414819076</v>
       </c>
       <c r="E11">
-        <v>15.84743093421233</v>
+        <v>12.66141708915778</v>
       </c>
       <c r="F11">
-        <v>29.26266819343219</v>
+        <v>27.45481407778755</v>
       </c>
       <c r="G11">
-        <v>42.13174423106516</v>
+        <v>34.9758089825937</v>
       </c>
       <c r="H11">
-        <v>11.67221683215082</v>
+        <v>15.01243090814978</v>
       </c>
       <c r="I11">
-        <v>13.13792381343084</v>
+        <v>20.42094502830577</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.14588425583479</v>
+        <v>12.41356527500783</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.77102515347831</v>
+        <v>15.34350165424188</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.936364147997048</v>
+        <v>5.939239130231468</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.558809468911587</v>
+        <v>4.849990720076963</v>
       </c>
       <c r="E12">
-        <v>16.07886740881379</v>
+        <v>12.70977904891434</v>
       </c>
       <c r="F12">
-        <v>29.57775365471073</v>
+        <v>27.51033079744132</v>
       </c>
       <c r="G12">
-        <v>42.63091213137576</v>
+        <v>35.08502209329519</v>
       </c>
       <c r="H12">
-        <v>11.74233455718303</v>
+        <v>15.01310808928406</v>
       </c>
       <c r="I12">
-        <v>13.07456954902462</v>
+        <v>20.39740581545081</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>21.40381025856012</v>
+        <v>12.54313082747676</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.05611719551813</v>
+        <v>15.42027845957346</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.9187319157985</v>
+        <v>5.932993927388623</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.559973869481572</v>
+        <v>4.849939627599282</v>
       </c>
       <c r="E13">
-        <v>16.02914706048811</v>
+        <v>12.69935121902338</v>
       </c>
       <c r="F13">
-        <v>29.50987209462306</v>
+        <v>27.4983240732828</v>
       </c>
       <c r="G13">
-        <v>42.52340194777775</v>
+        <v>35.0614407509725</v>
       </c>
       <c r="H13">
-        <v>11.72715443334802</v>
+        <v>15.01293836691131</v>
       </c>
       <c r="I13">
-        <v>13.08812276038068</v>
+        <v>20.40245041237126</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.34845740148607</v>
+        <v>12.51535129901675</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.99491932389449</v>
+        <v>15.40375199086306</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.860955164667299</v>
+        <v>5.912597972213937</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.563772675006965</v>
+        <v>4.849774585998452</v>
       </c>
       <c r="E14">
-        <v>15.86652732483151</v>
+        <v>12.66539028590681</v>
       </c>
       <c r="F14">
-        <v>29.28858042976096</v>
+        <v>27.45935878910049</v>
       </c>
       <c r="G14">
-        <v>42.17280869190273</v>
+        <v>34.98476667173846</v>
       </c>
       <c r="H14">
-        <v>11.67794994682538</v>
+        <v>15.01247586073148</v>
       </c>
       <c r="I14">
-        <v>13.13267077476733</v>
+        <v>20.41899718152189</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.16719251213099</v>
+        <v>12.42428089441244</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.7945710317366</v>
+        <v>15.34982198090168</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.825354577993872</v>
+        <v>5.900083064243355</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.566100675608839</v>
+        <v>4.849674713867023</v>
       </c>
       <c r="E15">
-        <v>15.76655299292711</v>
+        <v>12.64462477537099</v>
       </c>
       <c r="F15">
-        <v>29.15309812049357</v>
+        <v>27.43563912593424</v>
       </c>
       <c r="G15">
-        <v>41.95807535547992</v>
+        <v>34.93797999688449</v>
       </c>
       <c r="H15">
-        <v>11.64804105264699</v>
+        <v>15.01226247235864</v>
       </c>
       <c r="I15">
-        <v>13.16022168686667</v>
+        <v>20.42920572727088</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>21.05558648944998</v>
+        <v>12.36813268543176</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.67125811420138</v>
+        <v>15.31676382366329</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.618116041739087</v>
+        <v>5.828051250718607</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.579459445904941</v>
+        <v>4.849121301326988</v>
       </c>
       <c r="E16">
-        <v>15.18791720505254</v>
+        <v>12.52622001419772</v>
       </c>
       <c r="F16">
-        <v>28.37771566485087</v>
+        <v>27.30200505889907</v>
       </c>
       <c r="G16">
-        <v>40.72774223384214</v>
+        <v>34.67267399813576</v>
       </c>
       <c r="H16">
-        <v>11.4801275521985</v>
+        <v>15.01211057449713</v>
       </c>
       <c r="I16">
-        <v>13.32201284488616</v>
+        <v>20.48882773896465</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.40711368351976</v>
+        <v>12.04078924107483</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.95537625787756</v>
+        <v>15.12700235785209</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.488107667295971</v>
+        <v>5.783604266240537</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.58767163539668</v>
+        <v>4.848798903889779</v>
       </c>
       <c r="E17">
-        <v>14.85380930397715</v>
+        <v>12.45414943025948</v>
       </c>
       <c r="F17">
-        <v>27.90297620315528</v>
+        <v>27.22210341724674</v>
       </c>
       <c r="G17">
-        <v>39.97317744822963</v>
+        <v>34.51250500101747</v>
       </c>
       <c r="H17">
-        <v>11.38017545658384</v>
+        <v>15.01297226985641</v>
       </c>
       <c r="I17">
-        <v>13.4246118389488</v>
+        <v>20.52640357446191</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.0012752239938</v>
+        <v>11.83501055030108</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.50784448621987</v>
+        <v>15.01036802523038</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.412276276433562</v>
+        <v>5.757953823488768</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.592401801127651</v>
+        <v>4.848619845085196</v>
       </c>
       <c r="E18">
-        <v>14.6757829634539</v>
+        <v>12.41291928357946</v>
       </c>
       <c r="F18">
-        <v>27.6302797478991</v>
+        <v>27.17692224108613</v>
       </c>
       <c r="G18">
-        <v>39.53926296500966</v>
+        <v>34.42136256957573</v>
       </c>
       <c r="H18">
-        <v>11.3237899267841</v>
+        <v>15.01381846991146</v>
       </c>
       <c r="I18">
-        <v>13.48480040806467</v>
+        <v>20.5483833458235</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.76487152598551</v>
+        <v>11.71483472321337</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.24731405560003</v>
+        <v>14.94322665584784</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.386420310271608</v>
+        <v>5.749255175312677</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.594004562213299</v>
+        <v>4.848560322559059</v>
       </c>
       <c r="E19">
-        <v>14.61537597560235</v>
+        <v>12.3989991393752</v>
       </c>
       <c r="F19">
-        <v>27.53801379230197</v>
+        <v>27.16175910689969</v>
       </c>
       <c r="G19">
-        <v>39.39236522187963</v>
+        <v>34.39067501720704</v>
       </c>
       <c r="H19">
-        <v>11.30488661808304</v>
+        <v>15.01416515419138</v>
       </c>
       <c r="I19">
-        <v>13.50537650806023</v>
+        <v>20.55588835532896</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.68431563557759</v>
+        <v>11.6738338428513</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.15856225009515</v>
+        <v>14.92048647596733</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.50205642710327</v>
+        <v>5.788344800944692</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.586796749096183</v>
+        <v>4.848832565821417</v>
       </c>
       <c r="E20">
-        <v>14.88669617733777</v>
+        <v>12.46179872193425</v>
       </c>
       <c r="F20">
-        <v>27.95347617609609</v>
+        <v>27.23052902782926</v>
       </c>
       <c r="G20">
-        <v>40.05349326286913</v>
+        <v>34.52945428049777</v>
       </c>
       <c r="H20">
-        <v>11.39070081088483</v>
+        <v>15.01284424922776</v>
       </c>
       <c r="I20">
-        <v>13.41356710707954</v>
+        <v>20.52236555947838</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>20.04478483437278</v>
+        <v>11.85710430153924</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.55580704633238</v>
+        <v>15.02279035759678</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.87796950324595</v>
+        <v>5.918593348684134</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.562656641297651</v>
+        <v>4.849822808829331</v>
       </c>
       <c r="E21">
-        <v>15.91436844273537</v>
+        <v>12.67535790104685</v>
       </c>
       <c r="F21">
-        <v>29.35356557005125</v>
+        <v>27.47077312991393</v>
       </c>
       <c r="G21">
-        <v>42.27578319641799</v>
+        <v>35.00725070677386</v>
       </c>
       <c r="H21">
-        <v>11.69235439311932</v>
+        <v>15.01259713955645</v>
       </c>
       <c r="I21">
-        <v>13.11953059147366</v>
+        <v>20.41412174399528</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>21.22055426598233</v>
+        <v>12.45110656568644</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.85354162552641</v>
+        <v>15.36566776538214</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.114226973040834</v>
+        <v>6.002766755029108</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.546931111394968</v>
+        <v>4.850524863487889</v>
       </c>
       <c r="E22">
-        <v>16.58289637166432</v>
+        <v>12.81660607546281</v>
       </c>
       <c r="F22">
-        <v>30.27156349140646</v>
+        <v>27.63443080270725</v>
       </c>
       <c r="G22">
-        <v>43.72888128324215</v>
+        <v>35.32758940590207</v>
       </c>
       <c r="H22">
-        <v>11.8997567202589</v>
+        <v>15.01556380563015</v>
       </c>
       <c r="I22">
-        <v>12.93902804462724</v>
+        <v>20.34665252770256</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>21.96312594464204</v>
+        <v>12.82300412750557</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.67497351379994</v>
+        <v>15.58872983230327</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.988995146004972</v>
+        <v>5.957937714093182</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.555319686216211</v>
+        <v>4.850145233348015</v>
       </c>
       <c r="E23">
-        <v>16.2275395099648</v>
+        <v>12.74108101900977</v>
       </c>
       <c r="F23">
-        <v>29.78134127221976</v>
+        <v>27.54648909662397</v>
       </c>
       <c r="G23">
-        <v>42.95325729728258</v>
+        <v>35.15591348244369</v>
       </c>
       <c r="H23">
-        <v>11.78810255597639</v>
+        <v>15.01369397860569</v>
       </c>
       <c r="I23">
-        <v>13.03423485027169</v>
+        <v>20.38236225836569</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>21.56913353989895</v>
+        <v>12.62601386670993</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.23894772525137</v>
+        <v>15.46979628341103</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.495753580657468</v>
+        <v>5.78620190609518</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.58719225745757</v>
+        <v>4.848817327604422</v>
       </c>
       <c r="E24">
-        <v>14.87183062786403</v>
+        <v>12.45833983770299</v>
       </c>
       <c r="F24">
-        <v>27.93064439395063</v>
+        <v>27.22671745341567</v>
       </c>
       <c r="G24">
-        <v>40.0171828067689</v>
+        <v>34.52178857291781</v>
       </c>
       <c r="H24">
-        <v>11.38593894420374</v>
+        <v>15.01290103462568</v>
       </c>
       <c r="I24">
-        <v>13.41855669565423</v>
+        <v>20.52418997194269</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>20.02512374519007</v>
+        <v>11.84712154260891</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.53413327154738</v>
+        <v>15.01717448534512</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.923483089157072</v>
+        <v>5.597804806368887</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.621840144094858</v>
+        <v>4.847629917476141</v>
       </c>
       <c r="E25">
-        <v>13.5593427293557</v>
+        <v>12.16206187256214</v>
       </c>
       <c r="F25">
-        <v>25.94883607791186</v>
+        <v>26.91159474270883</v>
       </c>
       <c r="G25">
-        <v>36.85459714102217</v>
+        <v>33.87571074696428</v>
       </c>
       <c r="H25">
-        <v>10.99413340299548</v>
+        <v>15.02544140184535</v>
       </c>
       <c r="I25">
-        <v>13.87761209297728</v>
+        <v>20.69120874989537</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>18.24564667518357</v>
+        <v>10.93761608353851</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.575367330699</v>
+        <v>14.5271325536261</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_58/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.457444107075544</v>
+        <v>6.467953060607033</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.846976662484721</v>
+        <v>3.647665937333523</v>
       </c>
       <c r="E2">
-        <v>11.95299178546759</v>
+        <v>12.56867508889184</v>
       </c>
       <c r="F2">
-        <v>26.70639490867826</v>
+        <v>24.50620326164569</v>
       </c>
       <c r="G2">
-        <v>33.43590813472551</v>
+        <v>34.53534721367106</v>
       </c>
       <c r="H2">
-        <v>15.04613355717483</v>
+        <v>10.7395111068407</v>
       </c>
       <c r="I2">
-        <v>20.82625208142185</v>
+        <v>14.24887465030414</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.31713435585459</v>
+        <v>16.83463315866332</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.16767760823589</v>
+        <v>17.02489021020332</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.361873318003035</v>
+        <v>6.13833528545901</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.846677358962811</v>
+        <v>3.665418605180876</v>
       </c>
       <c r="E3">
-        <v>11.81774575190637</v>
+        <v>11.88357160203079</v>
       </c>
       <c r="F3">
-        <v>26.58457021936836</v>
+        <v>23.54236780771826</v>
       </c>
       <c r="G3">
-        <v>33.16175406992028</v>
+        <v>32.97488874760832</v>
       </c>
       <c r="H3">
-        <v>15.06726363783326</v>
+        <v>10.58691320312442</v>
       </c>
       <c r="I3">
-        <v>20.92530030009729</v>
+        <v>14.51924648469658</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.924743154793708</v>
+        <v>15.81464746616553</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.92647148850223</v>
+        <v>15.9044436884532</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.303175708217762</v>
+        <v>5.925852423429004</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.846566277226334</v>
+        <v>3.676462596962957</v>
       </c>
       <c r="E4">
-        <v>11.73813056351785</v>
+        <v>11.45701852381464</v>
       </c>
       <c r="F4">
-        <v>26.51841433758723</v>
+        <v>22.95893998054299</v>
       </c>
       <c r="G4">
-        <v>33.00566386869187</v>
+        <v>32.02491836764309</v>
       </c>
       <c r="H4">
-        <v>15.08372687635955</v>
+        <v>10.502650843345</v>
       </c>
       <c r="I4">
-        <v>20.98982966026263</v>
+        <v>14.69397326429873</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.677773283179794</v>
+        <v>15.15683283375238</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.78008689841568</v>
+        <v>15.18153936243427</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.279283419172097</v>
+        <v>5.836767422043835</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.846539598065029</v>
+        <v>3.681002448979774</v>
       </c>
       <c r="E5">
-        <v>11.70658432574024</v>
+        <v>11.28188876065376</v>
       </c>
       <c r="F5">
-        <v>26.49364764900585</v>
+        <v>22.72355883881439</v>
       </c>
       <c r="G5">
-        <v>32.94519627456081</v>
+        <v>31.64031070591311</v>
       </c>
       <c r="H5">
-        <v>15.09131063402525</v>
+        <v>10.47062051807971</v>
       </c>
       <c r="I5">
-        <v>21.01705954635498</v>
+        <v>14.7672979003851</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.575774891639732</v>
+        <v>14.88084581419325</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.72094713737711</v>
+        <v>14.87809370190646</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.275318716991836</v>
+        <v>5.821825575246494</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.846536299819838</v>
+        <v>3.681758760021149</v>
       </c>
       <c r="E6">
-        <v>11.70140131705535</v>
+        <v>11.25273570565952</v>
       </c>
       <c r="F6">
-        <v>26.48966804269024</v>
+        <v>22.68462532358</v>
       </c>
       <c r="G6">
-        <v>32.93534702141622</v>
+        <v>31.57661324108487</v>
       </c>
       <c r="H6">
-        <v>15.09262266988015</v>
+        <v>10.46543927195425</v>
       </c>
       <c r="I6">
-        <v>21.02163743605476</v>
+        <v>14.77959969314106</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.558761309571203</v>
+        <v>14.83454059527011</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.71116039071724</v>
+        <v>14.82717016234648</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.302853335016533</v>
+        <v>5.924661037091976</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.846565841768847</v>
+        <v>3.676523659393832</v>
       </c>
       <c r="E7">
-        <v>11.73770143970351</v>
+        <v>11.45466168586041</v>
       </c>
       <c r="F7">
-        <v>26.5180714268746</v>
+        <v>22.95575558331413</v>
       </c>
       <c r="G7">
-        <v>33.00483558958624</v>
+        <v>32.01972058794272</v>
       </c>
       <c r="H7">
-        <v>15.08382561496304</v>
+        <v>10.50220961824263</v>
       </c>
       <c r="I7">
-        <v>20.99019311186836</v>
+        <v>14.69495363968226</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.676402961025403</v>
+        <v>15.15314282531212</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.77928713387838</v>
+        <v>15.17748292728858</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.42451361055666</v>
+        <v>6.356418679190163</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.84685855790824</v>
+        <v>3.653759073769776</v>
       </c>
       <c r="E8">
-        <v>11.90567006693613</v>
+        <v>12.33376838193633</v>
       </c>
       <c r="F8">
-        <v>26.66260770538665</v>
+        <v>24.17228688601537</v>
       </c>
       <c r="G8">
-        <v>33.33887867581507</v>
+        <v>33.99586634821774</v>
       </c>
       <c r="H8">
-        <v>15.05269355584179</v>
+        <v>10.68489984133893</v>
       </c>
       <c r="I8">
-        <v>20.85963313249632</v>
+        <v>14.34024450597896</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.18318393262271</v>
+        <v>16.48948628411958</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.08420226509173</v>
+        <v>16.64576705465196</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.661596384719958</v>
+        <v>7.121600865615823</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.847996277709884</v>
+        <v>3.610126507179027</v>
       </c>
       <c r="E9">
-        <v>12.26055941586339</v>
+        <v>14.00532958962155</v>
       </c>
       <c r="F9">
-        <v>27.01365237542366</v>
+        <v>26.61420867613026</v>
       </c>
       <c r="G9">
-        <v>34.0879788232872</v>
+        <v>37.91900817100994</v>
       </c>
       <c r="H9">
-        <v>15.01943241333521</v>
+        <v>11.12070362834134</v>
       </c>
       <c r="I9">
-        <v>20.63307343190866</v>
+        <v>13.71751262021522</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.25317488195368</v>
+        <v>18.86057107577402</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.69219410118009</v>
+        <v>19.25167821434303</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.833110687167629</v>
+        <v>7.632807898765134</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.849158946481009</v>
+        <v>3.578523253112773</v>
       </c>
       <c r="E10">
-        <v>12.53447292127511</v>
+        <v>15.22875597263166</v>
       </c>
       <c r="F10">
-        <v>27.3112266814294</v>
+        <v>28.431934135492</v>
       </c>
       <c r="G10">
-        <v>34.69108125656733</v>
+        <v>40.81385417332528</v>
       </c>
       <c r="H10">
-        <v>15.01205977917454</v>
+        <v>11.49168379995717</v>
       </c>
       <c r="I10">
-        <v>20.48458984023916</v>
+        <v>13.31046873198699</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.06402323933676</v>
+        <v>20.45302138830256</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.14030167380972</v>
+        <v>21.00602320549574</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.910206015043779</v>
+        <v>7.854159735893552</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.849755414819076</v>
+        <v>3.564217792864572</v>
       </c>
       <c r="E11">
-        <v>12.66141708915778</v>
+        <v>15.84743093421235</v>
       </c>
       <c r="F11">
-        <v>27.45481407778755</v>
+        <v>29.26266819343218</v>
       </c>
       <c r="G11">
-        <v>34.9758089825937</v>
+        <v>42.13174423106518</v>
       </c>
       <c r="H11">
-        <v>15.01243090814978</v>
+        <v>11.67221683215083</v>
       </c>
       <c r="I11">
-        <v>20.42094502830577</v>
+        <v>13.13792381343085</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.41356527500783</v>
+        <v>21.14588425583472</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.34350165424188</v>
+        <v>21.77102515347828</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.939239130231468</v>
+        <v>7.936364147996986</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.849990720076963</v>
+        <v>3.558809468911709</v>
       </c>
       <c r="E12">
-        <v>12.70977904891434</v>
+        <v>16.07886740881378</v>
       </c>
       <c r="F12">
-        <v>27.51033079744132</v>
+        <v>29.57775365471067</v>
       </c>
       <c r="G12">
-        <v>35.08502209329519</v>
+        <v>42.63091213137562</v>
       </c>
       <c r="H12">
-        <v>15.01310808928406</v>
+        <v>11.74233455718307</v>
       </c>
       <c r="I12">
-        <v>20.39740581545081</v>
+        <v>13.0745695490247</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.54313082747676</v>
+        <v>21.40381025856005</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.42027845957346</v>
+        <v>22.05611719551809</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.932993927388623</v>
+        <v>7.91873191579846</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.849939627599282</v>
+        <v>3.559973869481579</v>
       </c>
       <c r="E13">
-        <v>12.69935121902338</v>
+        <v>16.02914706048806</v>
       </c>
       <c r="F13">
-        <v>27.4983240732828</v>
+        <v>29.50987209462305</v>
       </c>
       <c r="G13">
-        <v>35.0614407509725</v>
+        <v>42.52340194777774</v>
       </c>
       <c r="H13">
-        <v>15.01293836691131</v>
+        <v>11.72715443334805</v>
       </c>
       <c r="I13">
-        <v>20.40245041237126</v>
+        <v>13.08812276038085</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.51535129901675</v>
+        <v>21.34845740148604</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.40375199086306</v>
+        <v>21.99491932389445</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.912597972213937</v>
+        <v>7.860955164667299</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.849774585998452</v>
+        <v>3.563772675006906</v>
       </c>
       <c r="E14">
-        <v>12.66539028590681</v>
+        <v>15.86652732483147</v>
       </c>
       <c r="F14">
-        <v>27.45935878910049</v>
+        <v>29.28858042976096</v>
       </c>
       <c r="G14">
-        <v>34.98476667173846</v>
+        <v>42.17280869190272</v>
       </c>
       <c r="H14">
-        <v>15.01247586073148</v>
+        <v>11.67794994682542</v>
       </c>
       <c r="I14">
-        <v>20.41899718152189</v>
+        <v>13.13267077476737</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.42428089441244</v>
+        <v>21.16719251213094</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.34982198090168</v>
+        <v>21.79457103173654</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.900083064243355</v>
+        <v>7.825354577993872</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.849674713867023</v>
+        <v>3.566100675608713</v>
       </c>
       <c r="E15">
-        <v>12.64462477537099</v>
+        <v>15.76655299292714</v>
       </c>
       <c r="F15">
-        <v>27.43563912593424</v>
+        <v>29.15309812049356</v>
       </c>
       <c r="G15">
-        <v>34.93797999688449</v>
+        <v>41.95807535547991</v>
       </c>
       <c r="H15">
-        <v>15.01226247235864</v>
+        <v>11.64804105264697</v>
       </c>
       <c r="I15">
-        <v>20.42920572727088</v>
+        <v>13.16022168686661</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.36813268543176</v>
+        <v>21.05558648945005</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.31676382366329</v>
+        <v>21.67125811420145</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.828051250718607</v>
+        <v>7.618116041739012</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.849121301326988</v>
+        <v>3.579459445904937</v>
       </c>
       <c r="E16">
-        <v>12.52622001419772</v>
+        <v>15.18791720505249</v>
       </c>
       <c r="F16">
-        <v>27.30200505889907</v>
+        <v>28.37771566485086</v>
       </c>
       <c r="G16">
-        <v>34.67267399813576</v>
+        <v>40.72774223384211</v>
       </c>
       <c r="H16">
-        <v>15.01211057449713</v>
+        <v>11.48012755219852</v>
       </c>
       <c r="I16">
-        <v>20.48882773896465</v>
+        <v>13.32201284488625</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.04078924107483</v>
+        <v>20.40711368351981</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.12700235785209</v>
+        <v>20.95537625787756</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.783604266240537</v>
+        <v>7.488107667296084</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.848798903889779</v>
+        <v>3.587671635396554</v>
       </c>
       <c r="E17">
-        <v>12.45414943025948</v>
+        <v>14.85380930397711</v>
       </c>
       <c r="F17">
-        <v>27.22210341724674</v>
+        <v>27.90297620315524</v>
       </c>
       <c r="G17">
-        <v>34.51250500101747</v>
+        <v>39.97317744822958</v>
       </c>
       <c r="H17">
-        <v>15.01297226985641</v>
+        <v>11.38017545658382</v>
       </c>
       <c r="I17">
-        <v>20.52640357446191</v>
+        <v>13.42461183894867</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.83501055030108</v>
+        <v>20.00127522399382</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.01036802523038</v>
+        <v>20.50784448621989</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.757953823488768</v>
+        <v>7.41227627643357</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.848619845085196</v>
+        <v>3.592401801127583</v>
       </c>
       <c r="E18">
-        <v>12.41291928357946</v>
+        <v>14.67578296345391</v>
       </c>
       <c r="F18">
-        <v>27.17692224108613</v>
+        <v>27.63027974789906</v>
       </c>
       <c r="G18">
-        <v>34.42136256957573</v>
+        <v>39.53926296500963</v>
       </c>
       <c r="H18">
-        <v>15.01381846991146</v>
+        <v>11.32378992678406</v>
       </c>
       <c r="I18">
-        <v>20.5483833458235</v>
+        <v>13.48480040806466</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.71483472321337</v>
+        <v>19.7648715259856</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.94322665584784</v>
+        <v>20.24731405560005</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.749255175312677</v>
+        <v>7.386420310271559</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.848560322559059</v>
+        <v>3.594004562213239</v>
       </c>
       <c r="E19">
-        <v>12.3989991393752</v>
+        <v>14.61537597560234</v>
       </c>
       <c r="F19">
-        <v>27.16175910689969</v>
+        <v>27.53801379230195</v>
       </c>
       <c r="G19">
-        <v>34.39067501720704</v>
+        <v>39.39236522187958</v>
       </c>
       <c r="H19">
-        <v>15.01416515419138</v>
+        <v>11.30488661808305</v>
       </c>
       <c r="I19">
-        <v>20.55588835532896</v>
+        <v>13.50537650806023</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.6738338428513</v>
+        <v>19.68431563557765</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.92048647596733</v>
+        <v>20.15856225009515</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.788344800944692</v>
+        <v>7.502056427103295</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.848832565821417</v>
+        <v>3.5867967490963</v>
       </c>
       <c r="E20">
-        <v>12.46179872193425</v>
+        <v>14.88669617733778</v>
       </c>
       <c r="F20">
-        <v>27.23052902782926</v>
+        <v>27.95347617609607</v>
       </c>
       <c r="G20">
-        <v>34.52945428049777</v>
+        <v>40.05349326286917</v>
       </c>
       <c r="H20">
-        <v>15.01284424922776</v>
+        <v>11.39070081088484</v>
       </c>
       <c r="I20">
-        <v>20.52236555947838</v>
+        <v>13.41356710707947</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.85710430153924</v>
+        <v>20.04478483437275</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.02279035759678</v>
+        <v>20.55580704633243</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.918593348684134</v>
+        <v>7.877969503245944</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.849822808829331</v>
+        <v>3.562656641297776</v>
       </c>
       <c r="E21">
-        <v>12.67535790104685</v>
+        <v>15.91436844273539</v>
       </c>
       <c r="F21">
-        <v>27.47077312991393</v>
+        <v>29.35356557005126</v>
       </c>
       <c r="G21">
-        <v>35.00725070677386</v>
+        <v>42.275783196418</v>
       </c>
       <c r="H21">
-        <v>15.01259713955645</v>
+        <v>11.69235439311933</v>
       </c>
       <c r="I21">
-        <v>20.41412174399528</v>
+        <v>13.11953059147367</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.45110656568644</v>
+        <v>21.22055426598236</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.36566776538214</v>
+        <v>21.85354162552644</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.002766755029108</v>
+        <v>8.114226973040786</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.850524863487889</v>
+        <v>3.54693111139516</v>
       </c>
       <c r="E22">
-        <v>12.81660607546281</v>
+        <v>16.58289637166434</v>
       </c>
       <c r="F22">
-        <v>27.63443080270725</v>
+        <v>30.27156349140647</v>
       </c>
       <c r="G22">
-        <v>35.32758940590207</v>
+        <v>43.72888128324222</v>
       </c>
       <c r="H22">
-        <v>15.01556380563015</v>
+        <v>11.89975672025887</v>
       </c>
       <c r="I22">
-        <v>20.34665252770256</v>
+        <v>12.93902804462722</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.82300412750557</v>
+        <v>21.96312594464207</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.58872983230327</v>
+        <v>22.67497351379998</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.957937714093182</v>
+        <v>7.988995146005036</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.850145233348015</v>
+        <v>3.555319686216159</v>
       </c>
       <c r="E23">
-        <v>12.74108101900977</v>
+        <v>16.22753950996476</v>
       </c>
       <c r="F23">
-        <v>27.54648909662397</v>
+        <v>29.78134127221978</v>
       </c>
       <c r="G23">
-        <v>35.15591348244369</v>
+        <v>42.9532572972826</v>
       </c>
       <c r="H23">
-        <v>15.01369397860569</v>
+        <v>11.78810255597631</v>
       </c>
       <c r="I23">
-        <v>20.38236225836569</v>
+        <v>13.03423485027161</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.62601386670993</v>
+        <v>21.56913353989904</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.46979628341103</v>
+        <v>22.23894772525139</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.78620190609518</v>
+        <v>7.495753580657414</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.848817327604422</v>
+        <v>3.587192257457571</v>
       </c>
       <c r="E24">
-        <v>12.45833983770299</v>
+        <v>14.87183062786404</v>
       </c>
       <c r="F24">
-        <v>27.22671745341567</v>
+        <v>27.93064439395067</v>
       </c>
       <c r="G24">
-        <v>34.52178857291781</v>
+        <v>40.01718280676903</v>
       </c>
       <c r="H24">
-        <v>15.01290103462568</v>
+        <v>11.38593894420374</v>
       </c>
       <c r="I24">
-        <v>20.52418997194269</v>
+        <v>13.41855669565426</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.84712154260891</v>
+        <v>20.02512374519012</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.01717448534512</v>
+        <v>20.53413327154741</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.597804806368887</v>
+        <v>6.923483089157066</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.847629917476141</v>
+        <v>3.621840144094869</v>
       </c>
       <c r="E25">
-        <v>12.16206187256214</v>
+        <v>13.5593427293557</v>
       </c>
       <c r="F25">
-        <v>26.91159474270883</v>
+        <v>25.94883607791188</v>
       </c>
       <c r="G25">
-        <v>33.87571074696428</v>
+        <v>36.85459714102215</v>
       </c>
       <c r="H25">
-        <v>15.02544140184535</v>
+        <v>10.99413340299551</v>
       </c>
       <c r="I25">
-        <v>20.69120874989537</v>
+        <v>13.8776120929773</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.93761608353851</v>
+        <v>18.24564667518359</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.5271325536261</v>
+        <v>18.57536733069898</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_58/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,52 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.467953060607033</v>
+        <v>10.07110706553419</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.647665937333523</v>
+        <v>6.062977300543678</v>
       </c>
       <c r="E2">
-        <v>12.56867508889184</v>
+        <v>34.90486714003245</v>
       </c>
       <c r="F2">
-        <v>24.50620326164569</v>
+        <v>52.78707250553389</v>
       </c>
       <c r="G2">
-        <v>34.53534721367106</v>
+        <v>85.32644986344231</v>
       </c>
       <c r="H2">
-        <v>10.7395111068407</v>
+        <v>5.894402739736361</v>
       </c>
       <c r="I2">
-        <v>14.24887465030414</v>
+        <v>3.396233145278542</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>21.2982578256797</v>
       </c>
       <c r="K2">
-        <v>16.83463315866332</v>
+        <v>17.48601896642171</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.02489021020332</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,46 +468,52 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>18.02349849634121</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.13833528545901</v>
+        <v>9.469452693691666</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.665418605180876</v>
+        <v>5.672621987425718</v>
       </c>
       <c r="E3">
-        <v>11.88357160203079</v>
+        <v>32.55253779777086</v>
       </c>
       <c r="F3">
-        <v>23.54236780771826</v>
+        <v>48.95375306580586</v>
       </c>
       <c r="G3">
-        <v>32.97488874760832</v>
+        <v>79.12098551423183</v>
       </c>
       <c r="H3">
-        <v>10.58691320312442</v>
+        <v>5.407222168350172</v>
       </c>
       <c r="I3">
-        <v>14.51924648469658</v>
+        <v>3.449856778822138</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>19.75730384935119</v>
       </c>
       <c r="K3">
-        <v>15.81464746616553</v>
+        <v>17.06054510568831</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.9044436884532</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,46 +521,52 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>17.39752452283048</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.925852423429004</v>
+        <v>9.074400525888834</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.676462596962957</v>
+        <v>5.42409689676389</v>
       </c>
       <c r="E4">
-        <v>11.45701852381464</v>
+        <v>31.0533477386564</v>
       </c>
       <c r="F4">
-        <v>22.95893998054299</v>
+        <v>46.49900485598057</v>
       </c>
       <c r="G4">
-        <v>32.02491836764309</v>
+        <v>75.14615012813186</v>
       </c>
       <c r="H4">
-        <v>10.502650843345</v>
+        <v>5.103781497569218</v>
       </c>
       <c r="I4">
-        <v>14.69397326429873</v>
+        <v>3.484513120417371</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>18.83997953883838</v>
       </c>
       <c r="K4">
-        <v>15.15683283375238</v>
+        <v>16.80412706202267</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.18153936243427</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,46 +574,52 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>17.00656483005289</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.836767422043835</v>
+        <v>8.895136084129939</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.681002448979774</v>
+        <v>5.320555927933433</v>
       </c>
       <c r="E5">
-        <v>11.28188876065376</v>
+        <v>30.42813651467042</v>
       </c>
       <c r="F5">
-        <v>22.72355883881439</v>
+        <v>45.47252714163667</v>
       </c>
       <c r="G5">
-        <v>31.64031070591311</v>
+        <v>73.48374896182794</v>
       </c>
       <c r="H5">
-        <v>10.47062051807971</v>
+        <v>4.978848370805901</v>
       </c>
       <c r="I5">
-        <v>14.7672979003851</v>
+        <v>3.501824924584614</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>18.47330760658271</v>
       </c>
       <c r="K5">
-        <v>14.88084581419325</v>
+        <v>16.71490464977857</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.87809370190646</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,46 +627,52 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>16.85386873519077</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.821825575246494</v>
+        <v>8.85045053723379</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.681758760021149</v>
+        <v>5.303225409428636</v>
       </c>
       <c r="E6">
-        <v>11.25273570565952</v>
+        <v>30.32344564102861</v>
       </c>
       <c r="F6">
-        <v>22.68462532358</v>
+        <v>45.30048279507511</v>
       </c>
       <c r="G6">
-        <v>31.57661324108487</v>
+        <v>73.20510186009408</v>
       </c>
       <c r="H6">
-        <v>10.46543927195425</v>
+        <v>4.958020807786899</v>
       </c>
       <c r="I6">
-        <v>14.77959969314106</v>
+        <v>3.50824669828024</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>18.41197309688292</v>
       </c>
       <c r="K6">
-        <v>14.83454059527011</v>
+        <v>16.71724178558905</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.82717016234648</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,46 +680,52 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>16.8383080947413</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.924661037091976</v>
+        <v>9.033205367801353</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.676523659393832</v>
+        <v>5.422709717770293</v>
       </c>
       <c r="E7">
-        <v>11.45466168586041</v>
+        <v>31.04497431879046</v>
       </c>
       <c r="F7">
-        <v>22.95575558331413</v>
+        <v>46.48526817627122</v>
       </c>
       <c r="G7">
-        <v>32.01972058794272</v>
+        <v>75.12390447095407</v>
       </c>
       <c r="H7">
-        <v>10.50220961824263</v>
+        <v>5.102102024577554</v>
       </c>
       <c r="I7">
-        <v>14.69495363968226</v>
+        <v>3.4939998629078</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>18.83506455751951</v>
       </c>
       <c r="K7">
-        <v>15.15314282531212</v>
+        <v>16.84935607878382</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.17748292728858</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,46 +733,52 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>17.03128100020918</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.356418679190163</v>
+        <v>9.8214411732454</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.653759073769776</v>
+        <v>5.930188023630575</v>
       </c>
       <c r="E8">
-        <v>12.33376838193633</v>
+        <v>34.10484770371746</v>
       </c>
       <c r="F8">
-        <v>24.17228688601537</v>
+        <v>51.48584467205305</v>
       </c>
       <c r="G8">
-        <v>33.99586634821774</v>
+        <v>83.22018839495338</v>
       </c>
       <c r="H8">
-        <v>10.68489984133893</v>
+        <v>5.727192860371664</v>
       </c>
       <c r="I8">
-        <v>14.34024450597896</v>
+        <v>3.425855209441119</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>20.77512148296443</v>
       </c>
       <c r="K8">
-        <v>16.48948628411958</v>
+        <v>17.39898570124812</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.64576705465196</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,46 +786,52 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>17.84361598522131</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.121600865615823</v>
+        <v>11.22430155173016</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.610126507179027</v>
+        <v>6.858093798537338</v>
       </c>
       <c r="E9">
-        <v>14.00532958962155</v>
+        <v>39.69706429092439</v>
       </c>
       <c r="F9">
-        <v>26.61420867613026</v>
+        <v>60.52974087017605</v>
       </c>
       <c r="G9">
-        <v>37.91900817100994</v>
+        <v>97.85611462207933</v>
       </c>
       <c r="H9">
-        <v>11.12070362834134</v>
+        <v>6.928971548006081</v>
       </c>
       <c r="I9">
-        <v>13.71751262021522</v>
+        <v>3.291096979831379</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>24.41207428071473</v>
       </c>
       <c r="K9">
-        <v>18.86057107577402</v>
+        <v>18.42736281912078</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.25167821434303</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,46 +839,52 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>19.32919111101101</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.632807898765134</v>
+        <v>12.11325039933709</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.578523253112773</v>
+        <v>7.448061899969701</v>
       </c>
       <c r="E10">
-        <v>15.22875597263166</v>
+        <v>42.71195693367468</v>
       </c>
       <c r="F10">
-        <v>28.431934135492</v>
+        <v>66.37627525066492</v>
       </c>
       <c r="G10">
-        <v>40.81385417332528</v>
+        <v>107.269541781214</v>
       </c>
       <c r="H10">
-        <v>11.49168379995717</v>
+        <v>7.746997667663981</v>
       </c>
       <c r="I10">
-        <v>13.31046873198699</v>
+        <v>3.205139096464397</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>26.75227078801574</v>
       </c>
       <c r="K10">
-        <v>20.45302138830256</v>
+        <v>19.21661773433165</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.00602320549574</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,46 +892,52 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>20.38503186288384</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.854159735893552</v>
+        <v>12.44442528350938</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.564217792864572</v>
+        <v>6.927203219585068</v>
       </c>
       <c r="E11">
-        <v>15.84743093421235</v>
+        <v>36.6244668519218</v>
       </c>
       <c r="F11">
-        <v>29.26266819343218</v>
+        <v>65.54910715248734</v>
       </c>
       <c r="G11">
-        <v>42.13174423106518</v>
+        <v>105.5258100307508</v>
       </c>
       <c r="H11">
-        <v>11.67221683215083</v>
+        <v>7.85589053470665</v>
       </c>
       <c r="I11">
-        <v>13.13792381343085</v>
+        <v>3.182562769594171</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>26.31125789452345</v>
       </c>
       <c r="K11">
-        <v>21.14588425583472</v>
+        <v>19.64575859545614</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.77102515347828</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,46 +945,52 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>20.8908094738986</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.936364147996986</v>
+        <v>12.59132373127669</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.558809468911709</v>
+        <v>6.371356698741643</v>
       </c>
       <c r="E12">
-        <v>16.07886740881378</v>
+        <v>31.18394436293262</v>
       </c>
       <c r="F12">
-        <v>29.57775365471067</v>
+        <v>63.65770087865029</v>
       </c>
       <c r="G12">
-        <v>42.63091213137562</v>
+        <v>102.134242655914</v>
       </c>
       <c r="H12">
-        <v>11.74233455718307</v>
+        <v>8.197726582175539</v>
       </c>
       <c r="I12">
-        <v>13.0745695490247</v>
+        <v>3.166611828530131</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>25.46073144774735</v>
       </c>
       <c r="K12">
-        <v>21.40381025856005</v>
+        <v>19.7709535715944</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.05611719551809</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,46 +998,52 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>21.05996035377492</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.91873191579846</v>
+        <v>12.56482301546106</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.559973869481579</v>
+        <v>5.743963296425727</v>
       </c>
       <c r="E13">
-        <v>16.02914706048806</v>
+        <v>25.94507411239656</v>
       </c>
       <c r="F13">
-        <v>29.50987209462305</v>
+        <v>60.79170388468782</v>
       </c>
       <c r="G13">
-        <v>42.52340194777774</v>
+        <v>97.19376870763064</v>
       </c>
       <c r="H13">
-        <v>11.72715443334805</v>
+        <v>8.708385683940053</v>
       </c>
       <c r="I13">
-        <v>13.08812276038085</v>
+        <v>3.168420907564584</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>24.22450007350634</v>
       </c>
       <c r="K13">
-        <v>21.34845740148604</v>
+        <v>19.73657323380093</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.99491932389445</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,46 +1051,52 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>21.01956538536927</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.860955164667299</v>
+        <v>12.45871425227807</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.563772675006906</v>
+        <v>5.269943871679163</v>
       </c>
       <c r="E14">
-        <v>15.86652732483147</v>
+        <v>22.56355132598441</v>
       </c>
       <c r="F14">
-        <v>29.28858042976096</v>
+        <v>58.32355910182127</v>
       </c>
       <c r="G14">
-        <v>42.17280869190272</v>
+        <v>92.99711155019764</v>
       </c>
       <c r="H14">
-        <v>11.67794994682542</v>
+        <v>9.171353733691122</v>
       </c>
       <c r="I14">
-        <v>13.13267077476737</v>
+        <v>3.180552969947198</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>23.17504405299848</v>
       </c>
       <c r="K14">
-        <v>21.16719251213094</v>
+        <v>19.65289514745</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.79457103173654</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,46 +1104,52 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>20.90303475251685</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.825354577993872</v>
+        <v>12.3832809350628</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.566100675608713</v>
+        <v>5.136505107212912</v>
       </c>
       <c r="E15">
-        <v>15.76655299292714</v>
+        <v>21.74756220727816</v>
       </c>
       <c r="F15">
-        <v>29.15309812049356</v>
+        <v>57.50363434847075</v>
       </c>
       <c r="G15">
-        <v>41.95807535547991</v>
+        <v>91.62568992545408</v>
       </c>
       <c r="H15">
-        <v>11.64804105264697</v>
+        <v>9.269499742469183</v>
       </c>
       <c r="I15">
-        <v>13.16022168686661</v>
+        <v>3.191289070314182</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>22.83256660581966</v>
       </c>
       <c r="K15">
-        <v>21.05558648945005</v>
+        <v>19.61636156342747</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.67125811420145</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,46 +1157,52 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>20.83946207583682</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.618116041739012</v>
+        <v>12.00548046839704</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.579459445904937</v>
+        <v>4.974303253536815</v>
       </c>
       <c r="E16">
-        <v>15.18791720505249</v>
+        <v>21.15317517840087</v>
       </c>
       <c r="F16">
-        <v>28.37771566485086</v>
+        <v>55.4890165624165</v>
       </c>
       <c r="G16">
-        <v>40.72774223384211</v>
+        <v>88.42312952732125</v>
       </c>
       <c r="H16">
-        <v>11.48012755219852</v>
+        <v>8.896497456660295</v>
       </c>
       <c r="I16">
-        <v>13.32201284488625</v>
+        <v>3.232952879941736</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>22.03728787160128</v>
       </c>
       <c r="K16">
-        <v>20.40711368351981</v>
+        <v>19.31373552454702</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.95537625787756</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,46 +1210,52 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>20.42046714942446</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.488107667296084</v>
+        <v>11.76658581855816</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.587671635396554</v>
+        <v>5.109189466770647</v>
       </c>
       <c r="E17">
-        <v>14.85380930397711</v>
+        <v>22.45541140478548</v>
       </c>
       <c r="F17">
-        <v>27.90297620315524</v>
+        <v>55.28684118744267</v>
       </c>
       <c r="G17">
-        <v>39.97317744822958</v>
+        <v>88.25438181639922</v>
       </c>
       <c r="H17">
-        <v>11.38017545658382</v>
+        <v>8.307612045751851</v>
       </c>
       <c r="I17">
-        <v>13.42461183894867</v>
+        <v>3.259104488955878</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>21.99964378517109</v>
       </c>
       <c r="K17">
-        <v>20.00127522399382</v>
+        <v>19.12799693385065</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.50784448621989</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,46 +1263,52 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>20.16011624078777</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.41227627643357</v>
+        <v>11.65328601419816</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.592401801127583</v>
+        <v>5.52704084993454</v>
       </c>
       <c r="E18">
-        <v>14.67578296345391</v>
+        <v>26.07687480006322</v>
       </c>
       <c r="F18">
-        <v>27.63027974789906</v>
+        <v>56.65772119368305</v>
       </c>
       <c r="G18">
-        <v>39.53926296500963</v>
+        <v>90.7382532358944</v>
       </c>
       <c r="H18">
-        <v>11.32378992678406</v>
+        <v>7.599918147991688</v>
       </c>
       <c r="I18">
-        <v>13.48480040806466</v>
+        <v>3.265565125593841</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>22.62424030842325</v>
       </c>
       <c r="K18">
-        <v>19.7648715259856</v>
+        <v>18.98269070578931</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.24731405560005</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,46 +1316,52 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>19.98799054081196</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.386420310271559</v>
+        <v>11.59390822762416</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.594004562213239</v>
+        <v>6.149118359077021</v>
       </c>
       <c r="E19">
-        <v>14.61537597560234</v>
+        <v>31.72521845533803</v>
       </c>
       <c r="F19">
-        <v>27.53801379230195</v>
+        <v>59.20209224900178</v>
       </c>
       <c r="G19">
-        <v>39.39236522187958</v>
+        <v>95.18645542896937</v>
       </c>
       <c r="H19">
-        <v>11.30488661808305</v>
+        <v>7.137263559702972</v>
       </c>
       <c r="I19">
-        <v>13.50537650806023</v>
+        <v>3.274500571847978</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>23.73804171136059</v>
       </c>
       <c r="K19">
-        <v>19.68431563557765</v>
+        <v>18.96313639254054</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.15856225009515</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,46 +1369,52 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>19.94584405607849</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.502056427103295</v>
+        <v>11.79435977111336</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.5867967490963</v>
+        <v>7.287457221488205</v>
       </c>
       <c r="E20">
-        <v>14.88669617733778</v>
+        <v>41.88465695924384</v>
       </c>
       <c r="F20">
-        <v>27.95347617609607</v>
+        <v>64.8443736544034</v>
       </c>
       <c r="G20">
-        <v>40.05349326286917</v>
+        <v>104.8008338007381</v>
       </c>
       <c r="H20">
-        <v>11.39070081088484</v>
+        <v>7.528019984682981</v>
       </c>
       <c r="I20">
-        <v>13.41356710707947</v>
+        <v>3.255602238595072</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>26.13838922143157</v>
       </c>
       <c r="K20">
-        <v>20.04478483437275</v>
+        <v>19.1447641825374</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.55580704633243</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,46 +1422,52 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>20.18630080696025</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.877969503245944</v>
+        <v>12.46205295727276</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.562656641297776</v>
+        <v>7.884230574686427</v>
       </c>
       <c r="E21">
-        <v>15.91436844273539</v>
+        <v>45.54060368039482</v>
       </c>
       <c r="F21">
-        <v>29.35356557005126</v>
+        <v>69.85369612854221</v>
       </c>
       <c r="G21">
-        <v>42.275783196418</v>
+        <v>112.9401768068379</v>
       </c>
       <c r="H21">
-        <v>11.69235439311933</v>
+        <v>8.26697324964857</v>
       </c>
       <c r="I21">
-        <v>13.11953059147367</v>
+        <v>3.186301592984643</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>28.16368779326219</v>
       </c>
       <c r="K21">
-        <v>21.22055426598236</v>
+        <v>19.71918307887109</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.85354162552644</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,46 +1475,52 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>20.96009581783553</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.114226973040786</v>
+        <v>12.91058206277683</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.54693111139516</v>
+        <v>8.222160693100189</v>
       </c>
       <c r="E22">
-        <v>16.58289637166434</v>
+        <v>47.45403990652115</v>
       </c>
       <c r="F22">
-        <v>30.27156349140647</v>
+        <v>72.87890364272413</v>
       </c>
       <c r="G22">
-        <v>43.72888128324222</v>
+        <v>117.8337718053128</v>
       </c>
       <c r="H22">
-        <v>11.89975672025887</v>
+        <v>8.723261462992058</v>
       </c>
       <c r="I22">
-        <v>12.93902804462722</v>
+        <v>3.13098958715346</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>29.38129389973123</v>
       </c>
       <c r="K22">
-        <v>21.96312594464207</v>
+        <v>20.04096143671379</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.67497351379998</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,46 +1528,52 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>21.4256041694121</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.988995146005036</v>
+        <v>12.70666215948073</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.555319686216159</v>
+        <v>8.042098861187984</v>
       </c>
       <c r="E23">
-        <v>16.22753950996476</v>
+        <v>46.43369434401687</v>
       </c>
       <c r="F23">
-        <v>29.78134127221978</v>
+        <v>71.2674229962244</v>
       </c>
       <c r="G23">
-        <v>42.9532572972826</v>
+        <v>115.2270457018879</v>
       </c>
       <c r="H23">
-        <v>11.78810255597631</v>
+        <v>8.478834447312627</v>
       </c>
       <c r="I23">
-        <v>13.03423485027161</v>
+        <v>3.149482364065691</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>28.73267227164469</v>
       </c>
       <c r="K23">
-        <v>21.56913353989904</v>
+        <v>19.81931143575137</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.23894772525139</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,46 +1581,52 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>21.15093689908221</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.495753580657414</v>
+        <v>11.83770894768116</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.587192257457571</v>
+        <v>7.351963158809038</v>
       </c>
       <c r="E24">
-        <v>14.87183062786404</v>
+        <v>42.53983267453577</v>
       </c>
       <c r="F24">
-        <v>27.93064439395067</v>
+        <v>65.08165107603034</v>
       </c>
       <c r="G24">
-        <v>40.01718280676903</v>
+        <v>105.22049112962</v>
       </c>
       <c r="H24">
-        <v>11.38593894420374</v>
+        <v>7.56941043585041</v>
       </c>
       <c r="I24">
-        <v>13.41855669565426</v>
+        <v>3.239445799535386</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>26.24336733139413</v>
       </c>
       <c r="K24">
-        <v>20.02512374519012</v>
+        <v>19.05624324689396</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.53413327154741</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,51 +1634,63 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>20.12991125324821</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.923483089157066</v>
+        <v>10.80811354696435</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.621840144094869</v>
+        <v>6.613767722951885</v>
       </c>
       <c r="E25">
-        <v>13.5593427293557</v>
+        <v>38.22364494355035</v>
       </c>
       <c r="F25">
-        <v>25.94883607791188</v>
+        <v>58.15849821238045</v>
       </c>
       <c r="G25">
-        <v>36.85459714102215</v>
+        <v>94.01931198240599</v>
       </c>
       <c r="H25">
-        <v>10.99413340299551</v>
+        <v>6.604858635137399</v>
       </c>
       <c r="I25">
-        <v>13.8776120929773</v>
+        <v>3.342031456233485</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>23.4582802646997</v>
       </c>
       <c r="K25">
-        <v>18.24564667518359</v>
+        <v>18.22730289418019</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.57536733069898</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>18.98009393091337</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_58/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.07110706553419</v>
+        <v>11.33443547383995</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.062977300543678</v>
+        <v>6.083297528275663</v>
       </c>
       <c r="E2">
-        <v>34.90486714003245</v>
+        <v>34.27179585943552</v>
       </c>
       <c r="F2">
-        <v>52.78707250553389</v>
+        <v>52.31292006521058</v>
       </c>
       <c r="G2">
-        <v>85.32644986344231</v>
+        <v>85.08958966335582</v>
       </c>
       <c r="H2">
-        <v>5.894402739736361</v>
+        <v>5.637518097390627</v>
       </c>
       <c r="I2">
-        <v>3.396233145278542</v>
+        <v>3.117426566250362</v>
       </c>
       <c r="J2">
-        <v>21.2982578256797</v>
+        <v>21.42798962771706</v>
       </c>
       <c r="K2">
-        <v>17.48601896642171</v>
+        <v>15.45664475526999</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.73430255697955</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.22675008896474</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -469,51 +475,57 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>18.02349849634121</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>16.952544427668</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.469452693691666</v>
+        <v>10.67437641196757</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.672621987425718</v>
+        <v>5.706081985165548</v>
       </c>
       <c r="E3">
-        <v>32.55253779777086</v>
+        <v>31.98495255715827</v>
       </c>
       <c r="F3">
-        <v>48.95375306580586</v>
+        <v>48.57825503906864</v>
       </c>
       <c r="G3">
-        <v>79.12098551423183</v>
+        <v>78.90470334820735</v>
       </c>
       <c r="H3">
-        <v>5.407222168350172</v>
+        <v>5.176994727017918</v>
       </c>
       <c r="I3">
-        <v>3.449856778822138</v>
+        <v>3.161742741971288</v>
       </c>
       <c r="J3">
-        <v>19.75730384935119</v>
+        <v>20.12511686640926</v>
       </c>
       <c r="K3">
-        <v>17.06054510568831</v>
+        <v>15.13648485297595</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.33480187017002</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.17347406423673</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -522,51 +534,57 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>17.39752452283048</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>16.38364140137062</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.074400525888834</v>
+        <v>10.24008889278063</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.42409689676389</v>
+        <v>5.464956600648904</v>
       </c>
       <c r="E4">
-        <v>31.0533477386564</v>
+        <v>30.52411908037968</v>
       </c>
       <c r="F4">
-        <v>46.49900485598057</v>
+        <v>46.19980386530324</v>
       </c>
       <c r="G4">
-        <v>75.14615012813186</v>
+        <v>74.93962797274104</v>
       </c>
       <c r="H4">
-        <v>5.103781497569218</v>
+        <v>4.889476726240348</v>
       </c>
       <c r="I4">
-        <v>3.484513120417371</v>
+        <v>3.19073424403769</v>
       </c>
       <c r="J4">
-        <v>18.83997953883838</v>
+        <v>19.29250144781628</v>
       </c>
       <c r="K4">
-        <v>16.80412706202267</v>
+        <v>14.94804894039248</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.11139743915347</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.14480731849365</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -575,51 +593,57 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>17.00656483005289</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>16.03023769248813</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.895136084129939</v>
+        <v>10.04502259285803</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.320555927933433</v>
+        <v>5.364287666089212</v>
       </c>
       <c r="E5">
-        <v>30.42813651467042</v>
+        <v>29.91417401989344</v>
       </c>
       <c r="F5">
-        <v>45.47252714163667</v>
+        <v>45.23202472818028</v>
       </c>
       <c r="G5">
-        <v>73.48374896182794</v>
+        <v>73.28059989513632</v>
       </c>
       <c r="H5">
-        <v>4.978848370805901</v>
+        <v>4.770953319488195</v>
       </c>
       <c r="I5">
-        <v>3.501824924584614</v>
+        <v>3.206280624753818</v>
       </c>
       <c r="J5">
-        <v>18.47330760658271</v>
+        <v>18.94502990992546</v>
       </c>
       <c r="K5">
-        <v>16.71490464977857</v>
+        <v>14.88392074227665</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.03172862259722</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.14431456378572</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -628,51 +652,57 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>16.85386873519077</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>15.89214965439244</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.85045053723379</v>
+        <v>9.998986371700154</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.303225409428636</v>
+        <v>5.347426036829769</v>
       </c>
       <c r="E6">
-        <v>30.32344564102861</v>
+        <v>29.81199873477605</v>
       </c>
       <c r="F6">
-        <v>45.30048279507511</v>
+        <v>45.06985138071074</v>
       </c>
       <c r="G6">
-        <v>73.20510186009408</v>
+        <v>73.00247938235049</v>
       </c>
       <c r="H6">
-        <v>4.958020807786899</v>
+        <v>4.751186188500497</v>
       </c>
       <c r="I6">
-        <v>3.50824669828024</v>
+        <v>3.213110100448006</v>
       </c>
       <c r="J6">
-        <v>18.41197309688292</v>
+        <v>18.88684103009952</v>
       </c>
       <c r="K6">
-        <v>16.71724178558905</v>
+        <v>14.88629518822673</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.02550316067297</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.15676901062653</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -681,51 +711,57 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>16.8383080947413</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>15.87742067848478</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.033205367801353</v>
+        <v>10.20229066682039</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.422709717770293</v>
+        <v>5.450496631150759</v>
       </c>
       <c r="E7">
-        <v>31.04497431879046</v>
+        <v>30.51269498431629</v>
       </c>
       <c r="F7">
-        <v>46.48526817627122</v>
+        <v>46.13279001991596</v>
       </c>
       <c r="G7">
-        <v>75.12390447095407</v>
+        <v>74.96758084833482</v>
       </c>
       <c r="H7">
-        <v>5.102102024577554</v>
+        <v>4.886547684377295</v>
       </c>
       <c r="I7">
-        <v>3.4939998629078</v>
+        <v>3.202022351382286</v>
       </c>
       <c r="J7">
-        <v>18.83506455751951</v>
+        <v>19.19172262871885</v>
       </c>
       <c r="K7">
-        <v>16.84935607878382</v>
+        <v>14.98251410196426</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.12936034717092</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.17833864669141</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -734,51 +770,57 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>17.03128100020918</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>16.0507926924592</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.8214411732454</v>
+        <v>11.06992273469196</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.930188023630575</v>
+        <v>5.914594368154003</v>
       </c>
       <c r="E8">
-        <v>34.10484770371746</v>
+        <v>33.48442549459902</v>
       </c>
       <c r="F8">
-        <v>51.48584467205305</v>
+        <v>50.88087272128456</v>
       </c>
       <c r="G8">
-        <v>83.22018839495338</v>
+        <v>83.14268729588147</v>
       </c>
       <c r="H8">
-        <v>5.727192860371664</v>
+        <v>5.475342523618756</v>
       </c>
       <c r="I8">
-        <v>3.425855209441119</v>
+        <v>3.146120994571855</v>
       </c>
       <c r="J8">
-        <v>20.77512148296443</v>
+        <v>20.68775817724927</v>
       </c>
       <c r="K8">
-        <v>17.39898570124812</v>
+        <v>15.39185707209656</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.62117259275003</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.24977322143243</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -787,51 +829,57 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>17.84361598522131</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>16.78649298987287</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.22430155173016</v>
+        <v>12.59730400110736</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.858093798537338</v>
+        <v>6.79901996784666</v>
       </c>
       <c r="E9">
-        <v>39.69706429092439</v>
+        <v>38.89496966423248</v>
       </c>
       <c r="F9">
-        <v>60.52974087017605</v>
+        <v>59.63070805582468</v>
       </c>
       <c r="G9">
-        <v>97.85611462207933</v>
+        <v>97.71858251709489</v>
       </c>
       <c r="H9">
-        <v>6.928971548006081</v>
+        <v>6.605344691255893</v>
       </c>
       <c r="I9">
-        <v>3.291096979831379</v>
+        <v>3.032867416503618</v>
       </c>
       <c r="J9">
-        <v>24.41207428071473</v>
+        <v>23.71789007297955</v>
       </c>
       <c r="K9">
-        <v>18.42736281912078</v>
+        <v>16.18963793964946</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.69532773743878</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.3667196408569</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -840,51 +888,57 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>19.32919111101101</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>18.14834002047584</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.11325039933709</v>
+        <v>13.56599911466778</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.448061899969701</v>
+        <v>7.258312881367278</v>
       </c>
       <c r="E10">
-        <v>42.71195693367468</v>
+        <v>41.73921839193778</v>
       </c>
       <c r="F10">
-        <v>66.37627525066492</v>
+        <v>64.99748589629169</v>
       </c>
       <c r="G10">
-        <v>107.269541781214</v>
+        <v>107.2733549428349</v>
       </c>
       <c r="H10">
-        <v>7.746997667663981</v>
+        <v>7.360607408301822</v>
       </c>
       <c r="I10">
-        <v>3.205139096464397</v>
+        <v>2.964091402478095</v>
       </c>
       <c r="J10">
-        <v>26.75227078801574</v>
+        <v>25.23026454415928</v>
       </c>
       <c r="K10">
-        <v>19.21661773433165</v>
+        <v>16.82263761575128</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>13.55994872055725</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>11.48805719315269</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -893,51 +947,57 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>20.38503186288384</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>19.12294297302825</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.44442528350938</v>
+        <v>13.93568620781758</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.927203219585068</v>
+        <v>6.594599258052075</v>
       </c>
       <c r="E11">
-        <v>36.6244668519218</v>
+        <v>35.54916741245482</v>
       </c>
       <c r="F11">
-        <v>65.54910715248734</v>
+        <v>63.64809700066589</v>
       </c>
       <c r="G11">
-        <v>105.5258100307508</v>
+        <v>106.0229204855631</v>
       </c>
       <c r="H11">
-        <v>7.85589053470665</v>
+        <v>7.472390097435805</v>
       </c>
       <c r="I11">
-        <v>3.182562769594171</v>
+        <v>2.952731960681922</v>
       </c>
       <c r="J11">
-        <v>26.31125789452345</v>
+        <v>23.81832667524809</v>
       </c>
       <c r="K11">
-        <v>19.64575859545614</v>
+        <v>17.17258607307258</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>14.00335558601388</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11.59296957168068</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -946,51 +1006,57 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>20.8908094738986</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>19.58900611088394</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.59132373127669</v>
+        <v>14.09415587138173</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.371356698741643</v>
+        <v>5.972387949577683</v>
       </c>
       <c r="E12">
-        <v>31.18394436293262</v>
+        <v>30.04177799508247</v>
       </c>
       <c r="F12">
-        <v>63.65770087865029</v>
+        <v>61.55715690242304</v>
       </c>
       <c r="G12">
-        <v>102.134242655914</v>
+        <v>102.8994577826992</v>
       </c>
       <c r="H12">
-        <v>8.197726582175539</v>
+        <v>7.848518372206083</v>
       </c>
       <c r="I12">
-        <v>3.166611828530131</v>
+        <v>2.939351535424815</v>
       </c>
       <c r="J12">
-        <v>25.46073144774735</v>
+        <v>22.5477840569838</v>
       </c>
       <c r="K12">
-        <v>19.7709535715944</v>
+        <v>17.27508430120869</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>14.14999813473228</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.60884695844012</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -999,51 +1065,57 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>21.05996035377492</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>19.74628602105408</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.56482301546106</v>
+        <v>14.06465681950814</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.743963296425727</v>
+        <v>5.354723804784244</v>
       </c>
       <c r="E13">
-        <v>25.94507411239656</v>
+        <v>24.7625544773262</v>
       </c>
       <c r="F13">
-        <v>60.79170388468782</v>
+        <v>58.81738111169806</v>
       </c>
       <c r="G13">
-        <v>97.19376870763064</v>
+        <v>97.98072423221049</v>
       </c>
       <c r="H13">
-        <v>8.708385683940053</v>
+        <v>8.411942252352329</v>
       </c>
       <c r="I13">
-        <v>3.168420907564584</v>
+        <v>2.94024178392471</v>
       </c>
       <c r="J13">
-        <v>24.22450007350634</v>
+        <v>21.46603725347437</v>
       </c>
       <c r="K13">
-        <v>19.73657323380093</v>
+        <v>17.24686872524147</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>14.11393488073182</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.60054346479085</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1052,51 +1124,57 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>21.01956538536927</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>19.70898722401092</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.45871425227807</v>
+        <v>13.950711129387</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.269943871679163</v>
+        <v>4.916718159493337</v>
       </c>
       <c r="E14">
-        <v>22.56355132598441</v>
+        <v>21.36515997048846</v>
       </c>
       <c r="F14">
-        <v>58.32355910182127</v>
+        <v>56.57701034811493</v>
       </c>
       <c r="G14">
-        <v>92.99711155019764</v>
+        <v>93.68657516000536</v>
       </c>
       <c r="H14">
-        <v>9.171353733691122</v>
+        <v>8.915363127297827</v>
       </c>
       <c r="I14">
-        <v>3.180552969947198</v>
+        <v>2.950776857024856</v>
       </c>
       <c r="J14">
-        <v>23.17504405299848</v>
+        <v>20.81700438145736</v>
       </c>
       <c r="K14">
-        <v>19.65289514745</v>
+        <v>17.17840277068392</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>14.01351541608132</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>11.5921898873404</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1105,51 +1183,57 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>20.90303475251685</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>19.60048550297086</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.3832809350628</v>
+        <v>13.87147172683179</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.136505107212912</v>
+        <v>4.807831886303168</v>
       </c>
       <c r="E15">
-        <v>21.74756220727816</v>
+        <v>20.55668334861666</v>
       </c>
       <c r="F15">
-        <v>57.50363434847075</v>
+        <v>55.87480346715562</v>
       </c>
       <c r="G15">
-        <v>91.62568992545408</v>
+        <v>92.24313045109909</v>
       </c>
       <c r="H15">
-        <v>9.269499742469183</v>
+        <v>9.025304063352007</v>
       </c>
       <c r="I15">
-        <v>3.191289070314182</v>
+        <v>2.96127909338372</v>
       </c>
       <c r="J15">
-        <v>22.83256660581966</v>
+        <v>20.689342151584</v>
       </c>
       <c r="K15">
-        <v>19.61636156342747</v>
+        <v>17.1486444074319</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>13.96086084108376</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>11.59681730403621</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1158,51 +1242,57 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>20.83946207583682</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>19.54076454982585</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.00548046839704</v>
+        <v>13.46458056296864</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.974303253536815</v>
+        <v>4.795418008801733</v>
       </c>
       <c r="E16">
-        <v>21.15317517840087</v>
+        <v>20.06665307312426</v>
       </c>
       <c r="F16">
-        <v>55.4890165624165</v>
+        <v>54.39301287142278</v>
       </c>
       <c r="G16">
-        <v>88.42312952732125</v>
+        <v>88.64142668482138</v>
       </c>
       <c r="H16">
-        <v>8.896497456660295</v>
+        <v>8.674075402927992</v>
       </c>
       <c r="I16">
-        <v>3.232952879941736</v>
+        <v>2.997020048549703</v>
       </c>
       <c r="J16">
-        <v>22.03728787160128</v>
+        <v>20.89376496379108</v>
       </c>
       <c r="K16">
-        <v>19.31373552454702</v>
+        <v>16.9022939727946</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>13.60460190385727</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>11.56367067056883</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1211,51 +1301,57 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>20.42046714942446</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>19.15146154352504</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.76658581855816</v>
+        <v>13.20718206144265</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.109189466770647</v>
+        <v>5.013028655438468</v>
       </c>
       <c r="E17">
-        <v>22.45541140478548</v>
+        <v>21.45153009741395</v>
       </c>
       <c r="F17">
-        <v>55.28684118744267</v>
+        <v>54.41971215228997</v>
       </c>
       <c r="G17">
-        <v>88.25438181639922</v>
+        <v>88.27632971846324</v>
       </c>
       <c r="H17">
-        <v>8.307612045751851</v>
+        <v>8.080884980878803</v>
       </c>
       <c r="I17">
-        <v>3.259104488955878</v>
+        <v>3.019599078598941</v>
       </c>
       <c r="J17">
-        <v>21.99964378517109</v>
+        <v>21.29522038102621</v>
       </c>
       <c r="K17">
-        <v>19.12799693385065</v>
+        <v>16.75200151722289</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>13.38738669389026</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>11.54447758545403</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1264,51 +1360,57 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>20.16011624078777</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>18.90990782811447</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.65328601419816</v>
+        <v>13.08022925795687</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.52704084993454</v>
+        <v>5.476740732282016</v>
       </c>
       <c r="E18">
-        <v>26.07687480006322</v>
+        <v>25.15036349789797</v>
       </c>
       <c r="F18">
-        <v>56.65772119368305</v>
+        <v>55.8662973460271</v>
       </c>
       <c r="G18">
-        <v>90.7382532358944</v>
+        <v>90.64557966075796</v>
       </c>
       <c r="H18">
-        <v>7.599918147991688</v>
+        <v>7.345736746082723</v>
       </c>
       <c r="I18">
-        <v>3.265565125593841</v>
+        <v>3.022020911339238</v>
       </c>
       <c r="J18">
-        <v>22.62424030842325</v>
+        <v>22.07672333112859</v>
       </c>
       <c r="K18">
-        <v>18.98269070578931</v>
+        <v>16.63457299273674</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>13.24088982142715</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>11.50837938624697</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1317,51 +1419,57 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>19.98799054081196</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>18.75179941896944</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.59390822762416</v>
+        <v>13.01831231629086</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.149118359077021</v>
+        <v>6.10933910457403</v>
       </c>
       <c r="E19">
-        <v>31.72521845533803</v>
+        <v>30.84793599308781</v>
       </c>
       <c r="F19">
-        <v>59.20209224900178</v>
+        <v>58.38811881461137</v>
       </c>
       <c r="G19">
-        <v>95.18645542896937</v>
+        <v>95.01981372157515</v>
       </c>
       <c r="H19">
-        <v>7.137263559702972</v>
+        <v>6.840418426412463</v>
       </c>
       <c r="I19">
-        <v>3.274500571847978</v>
+        <v>3.031118073889655</v>
       </c>
       <c r="J19">
-        <v>23.73804171136059</v>
+        <v>23.16783283456922</v>
       </c>
       <c r="K19">
-        <v>18.96313639254054</v>
+        <v>16.6190149375687</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>13.20851008762126</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>11.51584384875372</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1370,51 +1478,57 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>19.94584405607849</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>18.71213696243681</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.79435977111336</v>
+        <v>13.23673646660934</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.287457221488205</v>
+        <v>7.172480073194616</v>
       </c>
       <c r="E20">
-        <v>41.88465695924384</v>
+        <v>40.96947181839532</v>
       </c>
       <c r="F20">
-        <v>64.8443736544034</v>
+        <v>63.74189846297637</v>
       </c>
       <c r="G20">
-        <v>104.8008338007381</v>
+        <v>104.6425239399227</v>
       </c>
       <c r="H20">
-        <v>7.528019984682981</v>
+        <v>7.163152416712977</v>
       </c>
       <c r="I20">
-        <v>3.255602238595072</v>
+        <v>3.016315391419516</v>
       </c>
       <c r="J20">
-        <v>26.13838922143157</v>
+        <v>25.08237724661893</v>
       </c>
       <c r="K20">
-        <v>19.1447641825374</v>
+        <v>16.76551284967356</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>13.40870233908763</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>11.54449239672256</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1423,51 +1537,57 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>20.18630080696025</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>18.93430068504602</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.46205295727276</v>
+        <v>13.95929711500363</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.884230574686427</v>
+        <v>7.464082645393249</v>
       </c>
       <c r="E21">
-        <v>45.54060368039482</v>
+        <v>44.42326008333774</v>
       </c>
       <c r="F21">
-        <v>69.85369612854221</v>
+        <v>67.59844255102767</v>
       </c>
       <c r="G21">
-        <v>112.9401768068379</v>
+        <v>113.5051529393394</v>
       </c>
       <c r="H21">
-        <v>8.26697324964857</v>
+        <v>7.822539592192242</v>
       </c>
       <c r="I21">
-        <v>3.186301592984643</v>
+        <v>2.959115222706822</v>
       </c>
       <c r="J21">
-        <v>28.16368779326219</v>
+        <v>25.16871649658314</v>
       </c>
       <c r="K21">
-        <v>19.71918307887109</v>
+        <v>17.23287453370181</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>14.06799392747154</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.62192781803942</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1476,51 +1596,57 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>20.96009581783553</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>19.65205955026161</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.91058206277683</v>
+        <v>14.43787908152941</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.222160693100189</v>
+        <v>7.595885503124432</v>
       </c>
       <c r="E22">
-        <v>47.45403990652115</v>
+        <v>46.19353639693949</v>
       </c>
       <c r="F22">
-        <v>72.87890364272413</v>
+        <v>69.83936823472636</v>
       </c>
       <c r="G22">
-        <v>117.8337718053128</v>
+        <v>118.8708826442008</v>
       </c>
       <c r="H22">
-        <v>8.723261462992058</v>
+        <v>8.224733697391445</v>
       </c>
       <c r="I22">
-        <v>3.13098958715346</v>
+        <v>2.909184254043181</v>
       </c>
       <c r="J22">
-        <v>29.38129389973123</v>
+        <v>25.08084472256358</v>
       </c>
       <c r="K22">
-        <v>20.04096143671379</v>
+        <v>17.49701563299557</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>14.47013361297054</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>11.64165054041795</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1529,51 +1655,57 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>21.4256041694121</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>20.08677239871821</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.70666215948073</v>
+        <v>14.21459247315842</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.042098861187984</v>
+        <v>7.551607940850209</v>
       </c>
       <c r="E23">
-        <v>46.43369434401687</v>
+        <v>45.25783228910046</v>
       </c>
       <c r="F23">
-        <v>71.2674229962244</v>
+        <v>68.74874561755652</v>
       </c>
       <c r="G23">
-        <v>115.2270457018879</v>
+        <v>115.9270909595629</v>
       </c>
       <c r="H23">
-        <v>8.478834447312627</v>
+        <v>8.012382631917642</v>
       </c>
       <c r="I23">
-        <v>3.149482364065691</v>
+        <v>2.922337274159487</v>
       </c>
       <c r="J23">
-        <v>28.73267227164469</v>
+        <v>25.31536344122022</v>
       </c>
       <c r="K23">
-        <v>19.81931143575137</v>
+        <v>17.31457960359091</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>14.22522920813329</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.59808694405449</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1582,51 +1714,57 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>21.15093689908221</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>19.83209583748972</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.83770894768116</v>
+        <v>13.27348528831441</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.351963158809038</v>
+        <v>7.237428413817726</v>
       </c>
       <c r="E24">
-        <v>42.53983267453577</v>
+        <v>41.62525011577009</v>
       </c>
       <c r="F24">
-        <v>65.08165107603034</v>
+        <v>63.98165738196566</v>
       </c>
       <c r="G24">
-        <v>105.22049112962</v>
+        <v>105.0487188186872</v>
       </c>
       <c r="H24">
-        <v>7.56941043585041</v>
+        <v>7.202815784530834</v>
       </c>
       <c r="I24">
-        <v>3.239445799535386</v>
+        <v>2.996067168826276</v>
       </c>
       <c r="J24">
-        <v>26.24336733139413</v>
+        <v>25.19520535188158</v>
       </c>
       <c r="K24">
-        <v>19.05624324689396</v>
+        <v>16.69337662711438</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>13.35207491009227</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>11.49102066611392</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1635,51 +1773,57 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>20.12991125324821</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>18.88496786611796</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.80811354696435</v>
+        <v>12.15583719678391</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.613767722951885</v>
+        <v>6.583337442968771</v>
       </c>
       <c r="E25">
-        <v>38.22364494355035</v>
+        <v>37.47812739845288</v>
       </c>
       <c r="F25">
-        <v>58.15849821238045</v>
+        <v>57.40870636940021</v>
       </c>
       <c r="G25">
-        <v>94.01931198240599</v>
+        <v>93.84464473395379</v>
       </c>
       <c r="H25">
-        <v>6.604858635137399</v>
+        <v>6.303298281714994</v>
       </c>
       <c r="I25">
-        <v>3.342031456233485</v>
+        <v>3.081314497504798</v>
       </c>
       <c r="J25">
-        <v>23.4582802646997</v>
+        <v>23.04229033651314</v>
       </c>
       <c r="K25">
-        <v>18.22730289418019</v>
+        <v>16.0328777890962</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.43549973059519</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.38584048182838</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1688,9 +1832,15 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>18.98009393091337</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>17.82409407203375</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
